--- a/TestApp/bin/Debug/net6.0-windows/Resources/np_teszt.xlsx
+++ b/TestApp/bin/Debug/net6.0-windows/Resources/np_teszt.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felhasználó\source\repos\TestApp\TestApp\bin\Debug\net6.0\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felhasználó\source\repos\TestApp\TestApp\bin\Debug\net6.0-windows\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97251953-BC62-4766-BEA5-DBBFD84ABEE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04301C10-95C7-451B-9AC3-D79B4D874E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4019,7 +4019,7 @@
       <selection activeCell="H12" sqref="H12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
-      <autoFilter ref="A3:L77" xr:uid="{0F6A80CB-E5DF-49AC-ACF4-C299F0913FF6}"/>
+      <autoFilter ref="A3:L77" xr:uid="{1571C79A-BF66-43CA-92B7-6FF6E31FBBBC}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -4036,7 +4036,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1200" sqref="A1200"/>
-      <selection pane="bottomLeft" activeCell="N11" sqref="N11"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15422,7 +15422,7 @@
       <selection pane="bottomLeft" activeCell="H77" sqref="H77"/>
       <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.35433070866141736" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A4:AV400" xr:uid="{3EC639C8-CA95-46E0-ADCA-062B0A9094CD}">
+      <autoFilter ref="A4:AV400" xr:uid="{C7B7D1BE-2837-4CC3-ACE5-C1DF1CA711C7}">
         <filterColumn colId="6">
           <filters>
             <filter val="2019.06"/>
@@ -15930,7 +15930,7 @@
       <selection activeCell="L44" sqref="L44"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A41:N455" xr:uid="{80AE7C13-D2B1-406D-9144-B9700A957CC3}"/>
+      <autoFilter ref="A41:N455" xr:uid="{E38958B4-9035-45E2-AD3A-E11130F5B8AC}"/>
     </customSheetView>
   </customSheetViews>
   <dataValidations count="4">

--- a/TestApp/bin/Debug/net6.0-windows/Resources/np_teszt.xlsx
+++ b/TestApp/bin/Debug/net6.0-windows/Resources/np_teszt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felhasználó\source\repos\TestApp\TestApp\bin\Debug\net6.0-windows\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felhasználó\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04301C10-95C7-451B-9AC3-D79B4D874E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5254E362-00D4-400F-9115-D0B37086AADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Költségvetés" sheetId="2" r:id="rId1"/>
@@ -3430,7 +3430,7 @@
       </c>
       <c r="G4" s="103">
         <f>SUMIFS(Bérköltség!$N$6:$N$175,Bérköltség!$G$6:$G$175,$A4,Bérköltség!$F$6:$F$175,"Tény")</f>
-        <v>9048174</v>
+        <v>9288174</v>
       </c>
       <c r="H4" s="103">
         <f>SUMIFS(Bérköltség!$N$6:$N$175,Bérköltség!$G$6:$G$175,$A4,Bérköltség!$F$6:$F$175,"Köt. váll.")</f>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="I4" s="103">
         <f>F4-G4-H4</f>
-        <v>145342594</v>
+        <v>145102594</v>
       </c>
       <c r="K4" s="181" t="s">
         <v>44</v>
@@ -3451,11 +3451,11 @@
       </c>
       <c r="N4" s="184">
         <f>SUMIFS(Bérköltség!$N$6:$N$175,Bérköltség!$C$6:$C$175,$L4,Bérköltség!$F$6:$F$175,"Tény")+SUMIFS(Bérköltség!$O$6:$O$175,Bérköltség!$C$6:$C$175,$L4,Bérköltség!$F$6:$F$175,"Tény")+SUMIFS(Dologi_felhalm.!$I$8:$I$24,Dologi_felhalm.!$K$8:$K$24,$L4,Dologi_felhalm.!$J$8:$J$24,"Tény")</f>
-        <v>8140170</v>
+        <v>8381210</v>
       </c>
       <c r="O4" s="184">
         <f>M4-N4</f>
-        <v>247854366</v>
+        <v>247613326</v>
       </c>
       <c r="P4" s="184">
         <f>SUMIFS(Bérköltség!$N$6:$N$175,Bérköltség!$C$6:$C$175,$L4,Bérköltség!$F$6:$F$175,"Köt. váll.")+SUMIFS(Bérköltség!$O$6:$O$175,Bérköltség!$C$6:$C$175,$L4,Bérköltség!$F$6:$F$175,"Köt. váll.")+SUMIFS(Dologi_felhalm.!$I$8:$I$24,Dologi_felhalm.!$K$8:$K$24,$L4,Dologi_felhalm.!$J$8:$J$24,"Köt. váll.")</f>
@@ -3463,7 +3463,7 @@
       </c>
       <c r="Q4" s="185">
         <f>O4-P4</f>
-        <v>203848734</v>
+        <v>203607694</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -3550,7 +3550,7 @@
       </c>
       <c r="G6" s="146">
         <f t="shared" si="4"/>
-        <v>9048174</v>
+        <v>9288174</v>
       </c>
       <c r="H6" s="146">
         <f t="shared" si="4"/>
@@ -3558,7 +3558,7 @@
       </c>
       <c r="I6" s="146">
         <f t="shared" si="1"/>
-        <v>156448064</v>
+        <v>156208064</v>
       </c>
       <c r="K6" s="192" t="s">
         <v>157</v>
@@ -3570,11 +3570,11 @@
       </c>
       <c r="N6" s="186">
         <f>SUM(N4:N5)</f>
-        <v>10224438</v>
+        <v>10465478</v>
       </c>
       <c r="O6" s="186">
         <f>SUM(O4:O5)</f>
-        <v>309768732</v>
+        <v>309527692</v>
       </c>
       <c r="P6" s="186">
         <f>SUM(P4:P5)</f>
@@ -3582,7 +3582,7 @@
       </c>
       <c r="Q6" s="186">
         <f>SUM(Q4:Q5)</f>
-        <v>264048444</v>
+        <v>263807404</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="G7" s="103">
         <f>SUMIFS(Bérköltség!$O$6:$O$175,Bérköltség!$F$6:$F$175,"Tény")</f>
-        <v>1176264</v>
+        <v>1177304</v>
       </c>
       <c r="H7" s="103">
         <f>SUMIFS(Bérköltség!$O$6:$O$175,Bérköltség!$F$6:$F$175,"Köt. váll.")</f>
@@ -3615,7 +3615,7 @@
       </c>
       <c r="I7" s="103">
         <f t="shared" si="1"/>
-        <v>22791560</v>
+        <v>22790520</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -3644,7 +3644,7 @@
       </c>
       <c r="G8" s="146">
         <f t="shared" si="5"/>
-        <v>10224438</v>
+        <v>10465478</v>
       </c>
       <c r="H8" s="146">
         <f t="shared" si="5"/>
@@ -3652,7 +3652,7 @@
       </c>
       <c r="I8" s="146">
         <f t="shared" si="1"/>
-        <v>179239624</v>
+        <v>178998584</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -4002,7 +4002,7 @@
       </c>
       <c r="G20" s="167">
         <f t="shared" si="9"/>
-        <v>10224438</v>
+        <v>10465478</v>
       </c>
       <c r="H20" s="167">
         <f t="shared" si="9"/>
@@ -4010,7 +4010,7 @@
       </c>
       <c r="I20" s="167">
         <f t="shared" si="9"/>
-        <v>264048444</v>
+        <v>263807404</v>
       </c>
     </row>
   </sheetData>
@@ -4019,7 +4019,7 @@
       <selection activeCell="H12" sqref="H12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
-      <autoFilter ref="A3:L77" xr:uid="{1571C79A-BF66-43CA-92B7-6FF6E31FBBBC}"/>
+      <autoFilter ref="A3:L77" xr:uid="{00B9C278-8A5C-4B57-A503-685C619C6161}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -4036,7 +4036,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1200" sqref="A1200"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:E2"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4470,13 +4470,16 @@
         <f t="shared" ref="M8" si="5">L8/K8</f>
         <v>1</v>
       </c>
-      <c r="N8" s="88"/>
+      <c r="N8" s="88">
+        <f t="shared" ref="N8" si="6">ROUND(I8*M8,0)</f>
+        <v>240000</v>
+      </c>
       <c r="O8" s="88">
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="P8" s="100">
-        <f t="shared" ref="P8" si="6">L8/K8-N8/I8</f>
-        <v>1</v>
+        <f t="shared" ref="P8" si="7">L8/K8-N8/I8</f>
+        <v>0</v>
       </c>
       <c r="Q8" s="60">
         <v>0.13</v>
@@ -4537,7 +4540,7 @@
         <v>240000</v>
       </c>
       <c r="J9" s="57">
-        <f t="shared" ref="J9:J13" si="7">ROUND(I9*Q9,0)</f>
+        <f t="shared" ref="J9:J13" si="8">ROUND(I9*Q9,0)</f>
         <v>31200</v>
       </c>
       <c r="K9" s="58">
@@ -4547,19 +4550,19 @@
         <v>130</v>
       </c>
       <c r="M9" s="168">
-        <f t="shared" ref="M9:M13" si="8">L9/K9</f>
+        <f t="shared" ref="M9:M13" si="9">L9/K9</f>
         <v>1</v>
       </c>
       <c r="N9" s="88">
-        <f t="shared" ref="N9:N13" si="9">ROUND(I9*M9,0)</f>
+        <f t="shared" ref="N9:N13" si="10">ROUND(I9*M9,0)</f>
         <v>240000</v>
       </c>
       <c r="O9" s="88">
-        <f t="shared" ref="O9:O13" si="10">ROUND(N9*Q9,0)</f>
+        <f t="shared" ref="O9:O13" si="11">ROUND(N9*Q9,0)</f>
         <v>31200</v>
       </c>
       <c r="P9" s="100">
-        <f t="shared" ref="P9:P13" si="11">L9/K9-N9/I9</f>
+        <f t="shared" ref="P9:P13" si="12">L9/K9-N9/I9</f>
         <v>0</v>
       </c>
       <c r="Q9" s="60">
@@ -4607,7 +4610,7 @@
         <v>240000</v>
       </c>
       <c r="J10" s="57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>31200</v>
       </c>
       <c r="K10" s="58">
@@ -4617,19 +4620,19 @@
         <v>130</v>
       </c>
       <c r="M10" s="168">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="N10" s="88">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>240000</v>
       </c>
       <c r="O10" s="88">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>31200</v>
       </c>
       <c r="P10" s="100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q10" s="60">
@@ -4677,7 +4680,7 @@
         <v>240000</v>
       </c>
       <c r="J11" s="57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>31200</v>
       </c>
       <c r="K11" s="58">
@@ -4687,19 +4690,19 @@
         <v>130</v>
       </c>
       <c r="M11" s="168">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="N11" s="88">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>240000</v>
       </c>
       <c r="O11" s="88">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>31200</v>
       </c>
       <c r="P11" s="100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q11" s="60">
@@ -4747,7 +4750,7 @@
         <v>240000</v>
       </c>
       <c r="J12" s="57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>31200</v>
       </c>
       <c r="K12" s="58">
@@ -4757,19 +4760,19 @@
         <v>130</v>
       </c>
       <c r="M12" s="168">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="N12" s="88">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>240000</v>
       </c>
       <c r="O12" s="88">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>31200</v>
       </c>
       <c r="P12" s="100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q12" s="60">
@@ -4817,7 +4820,7 @@
         <v>240000</v>
       </c>
       <c r="J13" s="57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>31200</v>
       </c>
       <c r="K13" s="58">
@@ -4827,19 +4830,19 @@
         <v>130</v>
       </c>
       <c r="M13" s="168">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="N13" s="88">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>240000</v>
       </c>
       <c r="O13" s="88">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>31200</v>
       </c>
       <c r="P13" s="100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q13" s="60">
@@ -4909,7 +4912,7 @@
         <v>18720</v>
       </c>
       <c r="P14" s="100">
-        <f t="shared" ref="P14" si="12">L14/K14-N14/I14</f>
+        <f t="shared" ref="P14" si="13">L14/K14-N14/I14</f>
         <v>0</v>
       </c>
       <c r="Q14" s="60">
@@ -4957,7 +4960,7 @@
         <v>240000</v>
       </c>
       <c r="J15" s="57">
-        <f t="shared" ref="J15:J23" si="13">ROUND(I15*Q15,0)</f>
+        <f t="shared" ref="J15:J23" si="14">ROUND(I15*Q15,0)</f>
         <v>31200</v>
       </c>
       <c r="K15" s="58">
@@ -4967,19 +4970,19 @@
         <v>87</v>
       </c>
       <c r="M15" s="168">
-        <f t="shared" ref="M15:M23" si="14">L15/K15</f>
+        <f t="shared" ref="M15:M23" si="15">L15/K15</f>
         <v>1</v>
       </c>
       <c r="N15" s="88">
-        <f t="shared" ref="N15:N23" si="15">ROUND(I15*M15,0)</f>
+        <f t="shared" ref="N15:N23" si="16">ROUND(I15*M15,0)</f>
         <v>240000</v>
       </c>
       <c r="O15" s="88">
-        <f t="shared" ref="O15:O28" si="16">ROUND(N15*Q15,0)</f>
+        <f t="shared" ref="O15:O28" si="17">ROUND(N15*Q15,0)</f>
         <v>31200</v>
       </c>
       <c r="P15" s="100">
-        <f t="shared" ref="P15:P23" si="17">L15/K15-N15/I15</f>
+        <f t="shared" ref="P15:P23" si="18">L15/K15-N15/I15</f>
         <v>0</v>
       </c>
       <c r="Q15" s="60">
@@ -5039,7 +5042,7 @@
         <v>240000</v>
       </c>
       <c r="J16" s="57">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31200</v>
       </c>
       <c r="K16" s="58">
@@ -5049,19 +5052,19 @@
         <v>87</v>
       </c>
       <c r="M16" s="168">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="N16" s="88">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>240000</v>
       </c>
       <c r="O16" s="88">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>31200</v>
       </c>
       <c r="P16" s="100">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q16" s="60">
@@ -5107,7 +5110,7 @@
         <v>240000</v>
       </c>
       <c r="J17" s="57">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31200</v>
       </c>
       <c r="K17" s="58">
@@ -5117,19 +5120,19 @@
         <v>87</v>
       </c>
       <c r="M17" s="168">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="N17" s="88">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>240000</v>
       </c>
       <c r="O17" s="88">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>31200</v>
       </c>
       <c r="P17" s="100">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q17" s="60">
@@ -5175,7 +5178,7 @@
         <v>240000</v>
       </c>
       <c r="J18" s="57">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31200</v>
       </c>
       <c r="K18" s="58">
@@ -5185,19 +5188,19 @@
         <v>87</v>
       </c>
       <c r="M18" s="168">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="N18" s="88">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>240000</v>
       </c>
       <c r="O18" s="88">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>31200</v>
       </c>
       <c r="P18" s="100">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q18" s="60">
@@ -5243,7 +5246,7 @@
         <v>240000</v>
       </c>
       <c r="J19" s="57">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31200</v>
       </c>
       <c r="K19" s="58">
@@ -5253,19 +5256,19 @@
         <v>87</v>
       </c>
       <c r="M19" s="168">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="N19" s="88">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>240000</v>
       </c>
       <c r="O19" s="88">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>31200</v>
       </c>
       <c r="P19" s="100">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q19" s="60">
@@ -5311,7 +5314,7 @@
         <v>240000</v>
       </c>
       <c r="J20" s="57">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31200</v>
       </c>
       <c r="K20" s="58">
@@ -5321,19 +5324,19 @@
         <v>87</v>
       </c>
       <c r="M20" s="168">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="N20" s="88">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>240000</v>
       </c>
       <c r="O20" s="88">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>31200</v>
       </c>
       <c r="P20" s="100">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q20" s="60">
@@ -5379,7 +5382,7 @@
         <v>240000</v>
       </c>
       <c r="J21" s="57">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31200</v>
       </c>
       <c r="K21" s="58">
@@ -5389,19 +5392,19 @@
         <v>87</v>
       </c>
       <c r="M21" s="168">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="N21" s="88">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>240000</v>
       </c>
       <c r="O21" s="88">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>31200</v>
       </c>
       <c r="P21" s="100">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q21" s="60">
@@ -5447,7 +5450,7 @@
         <v>240000</v>
       </c>
       <c r="J22" s="57">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31200</v>
       </c>
       <c r="K22" s="58">
@@ -5457,19 +5460,19 @@
         <v>87</v>
       </c>
       <c r="M22" s="168">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="N22" s="88">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>240000</v>
       </c>
       <c r="O22" s="88">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>31200</v>
       </c>
       <c r="P22" s="100">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q22" s="60">
@@ -5515,7 +5518,7 @@
         <v>240000</v>
       </c>
       <c r="J23" s="57">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31200</v>
       </c>
       <c r="K23" s="58">
@@ -5525,19 +5528,19 @@
         <v>87</v>
       </c>
       <c r="M23" s="168">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="N23" s="88">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>240000</v>
       </c>
       <c r="O23" s="88">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>31200</v>
       </c>
       <c r="P23" s="100">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q23" s="60">
@@ -5573,7 +5576,7 @@
         <v>8</v>
       </c>
       <c r="G24" s="56" t="str">
-        <f t="shared" ref="G24" si="18">IF(H24="Napidíj","Nem rendszeres juttatás","Bérköltség")</f>
+        <f t="shared" ref="G24" si="19">IF(H24="Napidíj","Nem rendszeres juttatás","Bérköltség")</f>
         <v>Bérköltség</v>
       </c>
       <c r="H24" s="25" t="s">
@@ -5583,7 +5586,7 @@
         <v>120000</v>
       </c>
       <c r="J24" s="57">
-        <f t="shared" ref="J24" si="19">ROUND(I24*Q24,0)</f>
+        <f t="shared" ref="J24" si="20">ROUND(I24*Q24,0)</f>
         <v>15600</v>
       </c>
       <c r="K24" s="58">
@@ -5593,19 +5596,19 @@
         <v>44</v>
       </c>
       <c r="M24" s="168">
-        <f t="shared" ref="M24" si="20">L24/K24</f>
+        <f t="shared" ref="M24" si="21">L24/K24</f>
         <v>1</v>
       </c>
       <c r="N24" s="88">
-        <f t="shared" ref="N24" si="21">ROUND(I24*M24,0)</f>
+        <f t="shared" ref="N24" si="22">ROUND(I24*M24,0)</f>
         <v>120000</v>
       </c>
       <c r="O24" s="88">
-        <f t="shared" ref="O24" si="22">ROUND(N24*Q24,0)</f>
+        <f t="shared" ref="O24" si="23">ROUND(N24*Q24,0)</f>
         <v>15600</v>
       </c>
       <c r="P24" s="100">
-        <f t="shared" ref="P24" si="23">L24/K24-N24/I24</f>
+        <f t="shared" ref="P24" si="24">L24/K24-N24/I24</f>
         <v>0</v>
       </c>
       <c r="Q24" s="60">
@@ -5657,7 +5660,7 @@
         <v>9</v>
       </c>
       <c r="G25" s="56" t="str">
-        <f t="shared" ref="G25:G26" si="24">IF(H25="Napidíj","Nem rendszeres juttatás","Bérköltség")</f>
+        <f t="shared" ref="G25:G26" si="25">IF(H25="Napidíj","Nem rendszeres juttatás","Bérköltség")</f>
         <v>Bérköltség</v>
       </c>
       <c r="H25" s="25" t="s">
@@ -5667,7 +5670,7 @@
         <v>120000</v>
       </c>
       <c r="J25" s="57">
-        <f t="shared" ref="J25:J26" si="25">ROUND(I25*Q25,0)</f>
+        <f t="shared" ref="J25:J26" si="26">ROUND(I25*Q25,0)</f>
         <v>15600</v>
       </c>
       <c r="K25" s="58">
@@ -5677,19 +5680,19 @@
         <v>44</v>
       </c>
       <c r="M25" s="168">
-        <f t="shared" ref="M25:M26" si="26">L25/K25</f>
+        <f t="shared" ref="M25:M26" si="27">L25/K25</f>
         <v>1</v>
       </c>
       <c r="N25" s="88">
-        <f t="shared" ref="N25:N26" si="27">ROUND(I25*M25,0)</f>
+        <f t="shared" ref="N25:N26" si="28">ROUND(I25*M25,0)</f>
         <v>120000</v>
       </c>
       <c r="O25" s="88">
-        <f t="shared" ref="O25:O26" si="28">ROUND(N25*Q25,0)</f>
+        <f t="shared" ref="O25:O26" si="29">ROUND(N25*Q25,0)</f>
         <v>15600</v>
       </c>
       <c r="P25" s="100">
-        <f t="shared" ref="P25:P26" si="29">L25/K25-N25/I25</f>
+        <f t="shared" ref="P25:P26" si="30">L25/K25-N25/I25</f>
         <v>0</v>
       </c>
       <c r="Q25" s="60">
@@ -5727,7 +5730,7 @@
         <v>9</v>
       </c>
       <c r="G26" s="56" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Bérköltség</v>
       </c>
       <c r="H26" s="25" t="s">
@@ -5737,7 +5740,7 @@
         <v>120000</v>
       </c>
       <c r="J26" s="57">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>15600</v>
       </c>
       <c r="K26" s="58">
@@ -5747,19 +5750,19 @@
         <v>44</v>
       </c>
       <c r="M26" s="168">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="N26" s="88">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>120000</v>
       </c>
       <c r="O26" s="88">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>15600</v>
       </c>
       <c r="P26" s="100">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Q26" s="60">
@@ -5797,7 +5800,7 @@
         <v>9</v>
       </c>
       <c r="G27" s="56" t="str">
-        <f t="shared" ref="G27" si="30">IF(H27="Napidíj","Nem rendszeres juttatás","Bérköltség")</f>
+        <f t="shared" ref="G27" si="31">IF(H27="Napidíj","Nem rendszeres juttatás","Bérköltség")</f>
         <v>Bérköltség</v>
       </c>
       <c r="H27" s="25" t="s">
@@ -5807,7 +5810,7 @@
         <v>120000</v>
       </c>
       <c r="J27" s="57">
-        <f t="shared" ref="J27" si="31">ROUND(I27*Q27,0)</f>
+        <f t="shared" ref="J27" si="32">ROUND(I27*Q27,0)</f>
         <v>15600</v>
       </c>
       <c r="K27" s="58">
@@ -5817,19 +5820,19 @@
         <v>44</v>
       </c>
       <c r="M27" s="168">
-        <f t="shared" ref="M27" si="32">L27/K27</f>
+        <f t="shared" ref="M27" si="33">L27/K27</f>
         <v>1</v>
       </c>
       <c r="N27" s="88">
-        <f t="shared" ref="N27" si="33">ROUND(I27*M27,0)</f>
+        <f t="shared" ref="N27" si="34">ROUND(I27*M27,0)</f>
         <v>120000</v>
       </c>
       <c r="O27" s="88">
-        <f t="shared" ref="O27" si="34">ROUND(N27*Q27,0)</f>
+        <f t="shared" ref="O27" si="35">ROUND(N27*Q27,0)</f>
         <v>15600</v>
       </c>
       <c r="P27" s="100">
-        <f t="shared" ref="P27" si="35">L27/K27-N27/I27</f>
+        <f t="shared" ref="P27" si="36">L27/K27-N27/I27</f>
         <v>0</v>
       </c>
       <c r="Q27" s="60">
@@ -5877,7 +5880,7 @@
         <v>599200</v>
       </c>
       <c r="J28" s="57">
-        <f t="shared" ref="J28" si="36">ROUND(I28*Q28,0)</f>
+        <f t="shared" ref="J28" si="37">ROUND(I28*Q28,0)</f>
         <v>77896</v>
       </c>
       <c r="K28" s="58">
@@ -5887,18 +5890,18 @@
         <v>73</v>
       </c>
       <c r="M28" s="168">
-        <f t="shared" ref="M28" si="37">L28/K28</f>
+        <f t="shared" ref="M28" si="38">L28/K28</f>
         <v>0.41954022988505746</v>
       </c>
       <c r="N28" s="88">
         <v>250000</v>
       </c>
       <c r="O28" s="88">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>32500</v>
       </c>
       <c r="P28" s="100">
-        <f t="shared" ref="P28" si="38">L28/K28-N28/I28</f>
+        <f t="shared" ref="P28" si="39">L28/K28-N28/I28</f>
         <v>2.3172659331215373E-3</v>
       </c>
       <c r="Q28" s="60">
@@ -5955,7 +5958,7 @@
         <v>599200</v>
       </c>
       <c r="J29" s="57">
-        <f t="shared" ref="J29:J33" si="39">ROUND(I29*Q29,0)</f>
+        <f t="shared" ref="J29:J33" si="40">ROUND(I29*Q29,0)</f>
         <v>77896</v>
       </c>
       <c r="K29" s="58">
@@ -5965,18 +5968,18 @@
         <v>73</v>
       </c>
       <c r="M29" s="168">
-        <f t="shared" ref="M29:M33" si="40">L29/K29</f>
+        <f t="shared" ref="M29:M33" si="41">L29/K29</f>
         <v>0.41954022988505746</v>
       </c>
       <c r="N29" s="88">
         <v>250000</v>
       </c>
       <c r="O29" s="88">
-        <f t="shared" ref="O29:O33" si="41">ROUND(N29*Q29,0)</f>
+        <f t="shared" ref="O29:O33" si="42">ROUND(N29*Q29,0)</f>
         <v>32500</v>
       </c>
       <c r="P29" s="100">
-        <f t="shared" ref="P29:P76" si="42">L29/K29-N29/I29</f>
+        <f t="shared" ref="P29:P76" si="43">L29/K29-N29/I29</f>
         <v>2.3172659331215373E-3</v>
       </c>
       <c r="Q29" s="60">
@@ -6036,7 +6039,7 @@
         <v>599200</v>
       </c>
       <c r="J30" s="57">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>77896</v>
       </c>
       <c r="K30" s="58">
@@ -6046,18 +6049,18 @@
         <v>73</v>
       </c>
       <c r="M30" s="168">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.41954022988505746</v>
       </c>
       <c r="N30" s="88">
         <v>250000</v>
       </c>
       <c r="O30" s="88">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>32500</v>
       </c>
       <c r="P30" s="100">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>2.3172659331215373E-3</v>
       </c>
       <c r="Q30" s="60">
@@ -6117,7 +6120,7 @@
         <v>599200</v>
       </c>
       <c r="J31" s="57">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>77896</v>
       </c>
       <c r="K31" s="58">
@@ -6127,18 +6130,18 @@
         <v>73</v>
       </c>
       <c r="M31" s="168">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.41954022988505746</v>
       </c>
       <c r="N31" s="88">
         <v>250000</v>
       </c>
       <c r="O31" s="88">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>32500</v>
       </c>
       <c r="P31" s="100">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>2.3172659331215373E-3</v>
       </c>
       <c r="Q31" s="60">
@@ -6184,7 +6187,7 @@
         <v>599200</v>
       </c>
       <c r="J32" s="57">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>77896</v>
       </c>
       <c r="K32" s="58">
@@ -6194,18 +6197,18 @@
         <v>73</v>
       </c>
       <c r="M32" s="168">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.41954022988505746</v>
       </c>
       <c r="N32" s="88">
         <v>250000</v>
       </c>
       <c r="O32" s="88">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>32500</v>
       </c>
       <c r="P32" s="100">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>2.3172659331215373E-3</v>
       </c>
       <c r="Q32" s="60">
@@ -6251,7 +6254,7 @@
         <v>599200</v>
       </c>
       <c r="J33" s="57">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>77896</v>
       </c>
       <c r="K33" s="58">
@@ -6261,18 +6264,18 @@
         <v>73</v>
       </c>
       <c r="M33" s="168">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.41954022988505746</v>
       </c>
       <c r="N33" s="88">
         <v>250000</v>
       </c>
       <c r="O33" s="88">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>32500</v>
       </c>
       <c r="P33" s="100">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>2.3172659331215373E-3</v>
       </c>
       <c r="Q33" s="60">
@@ -6308,7 +6311,7 @@
         <v>8</v>
       </c>
       <c r="G34" s="56" t="str">
-        <f t="shared" ref="G34" si="43">IF(H34="Napidíj","Nem rendszeres juttatás","Bérköltség")</f>
+        <f t="shared" ref="G34" si="44">IF(H34="Napidíj","Nem rendszeres juttatás","Bérköltség")</f>
         <v>Bérköltség</v>
       </c>
       <c r="H34" s="25" t="s">
@@ -6318,7 +6321,7 @@
         <v>120000</v>
       </c>
       <c r="J34" s="57">
-        <f t="shared" ref="J34" si="44">ROUND(I34*Q34,0)</f>
+        <f t="shared" ref="J34" si="45">ROUND(I34*Q34,0)</f>
         <v>15600</v>
       </c>
       <c r="K34" s="58">
@@ -6328,19 +6331,19 @@
         <v>44</v>
       </c>
       <c r="M34" s="168">
-        <f t="shared" ref="M34" si="45">L34/K34</f>
+        <f t="shared" ref="M34" si="46">L34/K34</f>
         <v>1</v>
       </c>
       <c r="N34" s="88">
-        <f t="shared" ref="N34" si="46">ROUND(I34*M34,0)</f>
+        <f t="shared" ref="N34" si="47">ROUND(I34*M34,0)</f>
         <v>120000</v>
       </c>
       <c r="O34" s="88">
-        <f t="shared" ref="O34" si="47">ROUND(N34*Q34,0)</f>
+        <f t="shared" ref="O34" si="48">ROUND(N34*Q34,0)</f>
         <v>15600</v>
       </c>
       <c r="P34" s="100">
-        <f t="shared" ref="P34" si="48">L34/K34-N34/I34</f>
+        <f t="shared" ref="P34" si="49">L34/K34-N34/I34</f>
         <v>0</v>
       </c>
       <c r="Q34" s="60">
@@ -6392,7 +6395,7 @@
         <v>8</v>
       </c>
       <c r="G35" s="56" t="str">
-        <f t="shared" ref="G35:G44" si="49">IF(H35="Napidíj","Nem rendszeres juttatás","Bérköltség")</f>
+        <f t="shared" ref="G35:G44" si="50">IF(H35="Napidíj","Nem rendszeres juttatás","Bérköltség")</f>
         <v>Bérköltség</v>
       </c>
       <c r="H35" s="25" t="s">
@@ -6402,7 +6405,7 @@
         <v>120000</v>
       </c>
       <c r="J35" s="57">
-        <f t="shared" ref="J35:J44" si="50">ROUND(I35*Q35,0)</f>
+        <f t="shared" ref="J35:J44" si="51">ROUND(I35*Q35,0)</f>
         <v>15600</v>
       </c>
       <c r="K35" s="58">
@@ -6412,19 +6415,19 @@
         <v>44</v>
       </c>
       <c r="M35" s="168">
-        <f t="shared" ref="M35:M44" si="51">L35/K35</f>
+        <f t="shared" ref="M35:M44" si="52">L35/K35</f>
         <v>1</v>
       </c>
       <c r="N35" s="88">
-        <f t="shared" ref="N35:N44" si="52">ROUND(I35*M35,0)</f>
+        <f t="shared" ref="N35:N44" si="53">ROUND(I35*M35,0)</f>
         <v>120000</v>
       </c>
       <c r="O35" s="88">
-        <f t="shared" ref="O35:O44" si="53">ROUND(N35*Q35,0)</f>
+        <f t="shared" ref="O35:O44" si="54">ROUND(N35*Q35,0)</f>
         <v>15600</v>
       </c>
       <c r="P35" s="100">
-        <f t="shared" ref="P35:P44" si="54">L35/K35-N35/I35</f>
+        <f t="shared" ref="P35:P44" si="55">L35/K35-N35/I35</f>
         <v>0</v>
       </c>
       <c r="Q35" s="60">
@@ -6476,7 +6479,7 @@
         <v>9</v>
       </c>
       <c r="G36" s="56" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>Bérköltség</v>
       </c>
       <c r="H36" s="25" t="s">
@@ -6486,7 +6489,7 @@
         <v>120000</v>
       </c>
       <c r="J36" s="57">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>15600</v>
       </c>
       <c r="K36" s="58">
@@ -6496,19 +6499,19 @@
         <v>44</v>
       </c>
       <c r="M36" s="168">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="N36" s="88">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>120000</v>
       </c>
       <c r="O36" s="88">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>15600</v>
       </c>
       <c r="P36" s="100">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="Q36" s="60">
@@ -6546,7 +6549,7 @@
         <v>9</v>
       </c>
       <c r="G37" s="56" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>Bérköltség</v>
       </c>
       <c r="H37" s="25" t="s">
@@ -6556,7 +6559,7 @@
         <v>120000</v>
       </c>
       <c r="J37" s="57">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>15600</v>
       </c>
       <c r="K37" s="58">
@@ -6566,19 +6569,19 @@
         <v>44</v>
       </c>
       <c r="M37" s="168">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="N37" s="88">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>120000</v>
       </c>
       <c r="O37" s="88">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>15600</v>
       </c>
       <c r="P37" s="100">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="Q37" s="60">
@@ -6616,7 +6619,7 @@
         <v>9</v>
       </c>
       <c r="G38" s="56" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>Bérköltség</v>
       </c>
       <c r="H38" s="25" t="s">
@@ -6626,7 +6629,7 @@
         <v>120000</v>
       </c>
       <c r="J38" s="57">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>15600</v>
       </c>
       <c r="K38" s="58">
@@ -6636,19 +6639,19 @@
         <v>44</v>
       </c>
       <c r="M38" s="168">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="N38" s="88">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>120000</v>
       </c>
       <c r="O38" s="88">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>15600</v>
       </c>
       <c r="P38" s="100">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="Q38" s="60">
@@ -6686,7 +6689,7 @@
         <v>9</v>
       </c>
       <c r="G39" s="56" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>Bérköltség</v>
       </c>
       <c r="H39" s="25" t="s">
@@ -6696,7 +6699,7 @@
         <v>120000</v>
       </c>
       <c r="J39" s="57">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>15600</v>
       </c>
       <c r="K39" s="58">
@@ -6706,19 +6709,19 @@
         <v>44</v>
       </c>
       <c r="M39" s="168">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="N39" s="88">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>120000</v>
       </c>
       <c r="O39" s="88">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>15600</v>
       </c>
       <c r="P39" s="100">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="Q39" s="60">
@@ -6756,7 +6759,7 @@
         <v>9</v>
       </c>
       <c r="G40" s="56" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>Bérköltség</v>
       </c>
       <c r="H40" s="25" t="s">
@@ -6766,7 +6769,7 @@
         <v>120000</v>
       </c>
       <c r="J40" s="57">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>15600</v>
       </c>
       <c r="K40" s="58">
@@ -6776,19 +6779,19 @@
         <v>44</v>
       </c>
       <c r="M40" s="168">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="N40" s="88">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>120000</v>
       </c>
       <c r="O40" s="88">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>15600</v>
       </c>
       <c r="P40" s="100">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="Q40" s="60">
@@ -6826,7 +6829,7 @@
         <v>9</v>
       </c>
       <c r="G41" s="56" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>Bérköltség</v>
       </c>
       <c r="H41" s="25" t="s">
@@ -6836,7 +6839,7 @@
         <v>120000</v>
       </c>
       <c r="J41" s="57">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>15600</v>
       </c>
       <c r="K41" s="58">
@@ -6846,19 +6849,19 @@
         <v>44</v>
       </c>
       <c r="M41" s="168">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="N41" s="88">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>120000</v>
       </c>
       <c r="O41" s="88">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>15600</v>
       </c>
       <c r="P41" s="100">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="Q41" s="60">
@@ -6896,7 +6899,7 @@
         <v>9</v>
       </c>
       <c r="G42" s="56" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>Bérköltség</v>
       </c>
       <c r="H42" s="25" t="s">
@@ -6906,7 +6909,7 @@
         <v>120000</v>
       </c>
       <c r="J42" s="57">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>15600</v>
       </c>
       <c r="K42" s="58">
@@ -6916,19 +6919,19 @@
         <v>44</v>
       </c>
       <c r="M42" s="168">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="N42" s="88">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>120000</v>
       </c>
       <c r="O42" s="88">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>15600</v>
       </c>
       <c r="P42" s="100">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="Q42" s="60">
@@ -6966,7 +6969,7 @@
         <v>9</v>
       </c>
       <c r="G43" s="56" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>Bérköltség</v>
       </c>
       <c r="H43" s="25" t="s">
@@ -6976,7 +6979,7 @@
         <v>120000</v>
       </c>
       <c r="J43" s="57">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>15600</v>
       </c>
       <c r="K43" s="58">
@@ -6986,19 +6989,19 @@
         <v>44</v>
       </c>
       <c r="M43" s="168">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="N43" s="88">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>120000</v>
       </c>
       <c r="O43" s="88">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>15600</v>
       </c>
       <c r="P43" s="100">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="Q43" s="60">
@@ -7036,7 +7039,7 @@
         <v>8</v>
       </c>
       <c r="G44" s="56" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>Bérköltség</v>
       </c>
       <c r="H44" s="25" t="s">
@@ -7046,7 +7049,7 @@
         <v>480000</v>
       </c>
       <c r="J44" s="57">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>62400</v>
       </c>
       <c r="K44" s="58">
@@ -7056,19 +7059,19 @@
         <v>87</v>
       </c>
       <c r="M44" s="168">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="N44" s="88">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>480000</v>
       </c>
       <c r="O44" s="88">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>62400</v>
       </c>
       <c r="P44" s="100">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="Q44" s="60">
@@ -7120,7 +7123,7 @@
         <v>8</v>
       </c>
       <c r="G45" s="56" t="str">
-        <f t="shared" ref="G45:G70" si="55">IF(H45="Napidíj","Nem rendszeres juttatás","Bérköltség")</f>
+        <f t="shared" ref="G45:G70" si="56">IF(H45="Napidíj","Nem rendszeres juttatás","Bérköltség")</f>
         <v>Bérköltség</v>
       </c>
       <c r="H45" s="25" t="s">
@@ -7130,7 +7133,7 @@
         <v>480000</v>
       </c>
       <c r="J45" s="57">
-        <f t="shared" ref="J45:J51" si="56">ROUND(I45*Q45,0)</f>
+        <f t="shared" ref="J45:J51" si="57">ROUND(I45*Q45,0)</f>
         <v>62400</v>
       </c>
       <c r="K45" s="58">
@@ -7140,19 +7143,19 @@
         <v>87</v>
       </c>
       <c r="M45" s="168">
-        <f t="shared" ref="M45:M51" si="57">L45/K45</f>
+        <f t="shared" ref="M45:M51" si="58">L45/K45</f>
         <v>1</v>
       </c>
       <c r="N45" s="88">
-        <f t="shared" ref="N45:N51" si="58">ROUND(I45*M45,0)</f>
+        <f t="shared" ref="N45:N51" si="59">ROUND(I45*M45,0)</f>
         <v>480000</v>
       </c>
       <c r="O45" s="88">
-        <f t="shared" ref="O45:O51" si="59">ROUND(N45*Q45,0)</f>
+        <f t="shared" ref="O45:O51" si="60">ROUND(N45*Q45,0)</f>
         <v>62400</v>
       </c>
       <c r="P45" s="100">
-        <f t="shared" ref="P45:P61" si="60">L45/K45-N45/I45</f>
+        <f t="shared" ref="P45:P61" si="61">L45/K45-N45/I45</f>
         <v>0</v>
       </c>
       <c r="Q45" s="60">
@@ -7204,7 +7207,7 @@
         <v>9</v>
       </c>
       <c r="G46" s="56" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>Bérköltség</v>
       </c>
       <c r="H46" s="25" t="s">
@@ -7214,7 +7217,7 @@
         <v>480000</v>
       </c>
       <c r="J46" s="57">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>62400</v>
       </c>
       <c r="K46" s="58">
@@ -7224,19 +7227,19 @@
         <v>87</v>
       </c>
       <c r="M46" s="168">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="N46" s="88">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>480000</v>
       </c>
       <c r="O46" s="88">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>62400</v>
       </c>
       <c r="P46" s="100">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="Q46" s="60">
@@ -7274,7 +7277,7 @@
         <v>9</v>
       </c>
       <c r="G47" s="56" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>Bérköltség</v>
       </c>
       <c r="H47" s="25" t="s">
@@ -7284,7 +7287,7 @@
         <v>480000</v>
       </c>
       <c r="J47" s="57">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>62400</v>
       </c>
       <c r="K47" s="58">
@@ -7294,19 +7297,19 @@
         <v>87</v>
       </c>
       <c r="M47" s="168">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="N47" s="88">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>480000</v>
       </c>
       <c r="O47" s="88">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>62400</v>
       </c>
       <c r="P47" s="100">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="Q47" s="60">
@@ -7344,7 +7347,7 @@
         <v>9</v>
       </c>
       <c r="G48" s="56" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>Bérköltség</v>
       </c>
       <c r="H48" s="25" t="s">
@@ -7354,7 +7357,7 @@
         <v>480000</v>
       </c>
       <c r="J48" s="57">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>62400</v>
       </c>
       <c r="K48" s="58">
@@ -7364,19 +7367,19 @@
         <v>87</v>
       </c>
       <c r="M48" s="168">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="N48" s="88">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>480000</v>
       </c>
       <c r="O48" s="88">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>62400</v>
       </c>
       <c r="P48" s="100">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="Q48" s="60">
@@ -7414,7 +7417,7 @@
         <v>9</v>
       </c>
       <c r="G49" s="56" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>Bérköltség</v>
       </c>
       <c r="H49" s="25" t="s">
@@ -7424,7 +7427,7 @@
         <v>480000</v>
       </c>
       <c r="J49" s="57">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>62400</v>
       </c>
       <c r="K49" s="58">
@@ -7434,19 +7437,19 @@
         <v>87</v>
       </c>
       <c r="M49" s="168">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="N49" s="88">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>480000</v>
       </c>
       <c r="O49" s="88">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>62400</v>
       </c>
       <c r="P49" s="100">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="Q49" s="60">
@@ -7484,7 +7487,7 @@
         <v>9</v>
       </c>
       <c r="G50" s="56" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>Bérköltség</v>
       </c>
       <c r="H50" s="25" t="s">
@@ -7494,7 +7497,7 @@
         <v>480000</v>
       </c>
       <c r="J50" s="57">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>62400</v>
       </c>
       <c r="K50" s="58">
@@ -7504,19 +7507,19 @@
         <v>87</v>
       </c>
       <c r="M50" s="168">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="N50" s="88">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>480000</v>
       </c>
       <c r="O50" s="88">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>62400</v>
       </c>
       <c r="P50" s="100">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="Q50" s="60">
@@ -7554,7 +7557,7 @@
         <v>8</v>
       </c>
       <c r="G51" s="56" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>Bérköltség</v>
       </c>
       <c r="H51" s="25" t="s">
@@ -7564,7 +7567,7 @@
         <v>980000</v>
       </c>
       <c r="J51" s="57">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>127400</v>
       </c>
       <c r="K51" s="58">
@@ -7574,19 +7577,19 @@
         <v>174</v>
       </c>
       <c r="M51" s="168">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="N51" s="88">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>980000</v>
       </c>
       <c r="O51" s="88">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>127400</v>
       </c>
       <c r="P51" s="100">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="Q51" s="60">
@@ -7638,7 +7641,7 @@
         <v>8</v>
       </c>
       <c r="G52" s="56" t="str">
-        <f t="shared" ref="G52:G60" si="61">IF(H52="Napidíj","Nem rendszeres juttatás","Bérköltség")</f>
+        <f t="shared" ref="G52:G60" si="62">IF(H52="Napidíj","Nem rendszeres juttatás","Bérköltség")</f>
         <v>Bérköltség</v>
       </c>
       <c r="H52" s="25" t="s">
@@ -7648,7 +7651,7 @@
         <v>980000</v>
       </c>
       <c r="J52" s="57">
-        <f t="shared" ref="J52:J60" si="62">ROUND(I52*Q52,0)</f>
+        <f t="shared" ref="J52:J60" si="63">ROUND(I52*Q52,0)</f>
         <v>127400</v>
       </c>
       <c r="K52" s="58">
@@ -7658,19 +7661,19 @@
         <v>174</v>
       </c>
       <c r="M52" s="168">
-        <f t="shared" ref="M52:M60" si="63">L52/K52</f>
+        <f t="shared" ref="M52:M60" si="64">L52/K52</f>
         <v>1</v>
       </c>
       <c r="N52" s="88">
-        <f t="shared" ref="N52:N60" si="64">ROUND(I52*M52,0)</f>
+        <f t="shared" ref="N52:N60" si="65">ROUND(I52*M52,0)</f>
         <v>980000</v>
       </c>
       <c r="O52" s="88">
-        <f t="shared" ref="O52:O60" si="65">ROUND(N52*Q52,0)</f>
+        <f t="shared" ref="O52:O60" si="66">ROUND(N52*Q52,0)</f>
         <v>127400</v>
       </c>
       <c r="P52" s="100">
-        <f t="shared" ref="P52:P60" si="66">L52/K52-N52/I52</f>
+        <f t="shared" ref="P52:P60" si="67">L52/K52-N52/I52</f>
         <v>0</v>
       </c>
       <c r="Q52" s="60">
@@ -7722,7 +7725,7 @@
         <v>9</v>
       </c>
       <c r="G53" s="56" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>Bérköltség</v>
       </c>
       <c r="H53" s="25" t="s">
@@ -7732,7 +7735,7 @@
         <v>980000</v>
       </c>
       <c r="J53" s="57">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>127400</v>
       </c>
       <c r="K53" s="58">
@@ -7742,19 +7745,19 @@
         <v>174</v>
       </c>
       <c r="M53" s="168">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
       <c r="N53" s="88">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>980000</v>
       </c>
       <c r="O53" s="88">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>127400</v>
       </c>
       <c r="P53" s="100">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="Q53" s="60">
@@ -7792,7 +7795,7 @@
         <v>9</v>
       </c>
       <c r="G54" s="56" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>Bérköltség</v>
       </c>
       <c r="H54" s="25" t="s">
@@ -7802,7 +7805,7 @@
         <v>980000</v>
       </c>
       <c r="J54" s="57">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>127400</v>
       </c>
       <c r="K54" s="58">
@@ -7812,19 +7815,19 @@
         <v>174</v>
       </c>
       <c r="M54" s="168">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
       <c r="N54" s="88">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>980000</v>
       </c>
       <c r="O54" s="88">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>127400</v>
       </c>
       <c r="P54" s="100">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="Q54" s="60">
@@ -7862,7 +7865,7 @@
         <v>9</v>
       </c>
       <c r="G55" s="56" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>Bérköltség</v>
       </c>
       <c r="H55" s="25" t="s">
@@ -7872,7 +7875,7 @@
         <v>980000</v>
       </c>
       <c r="J55" s="57">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>127400</v>
       </c>
       <c r="K55" s="58">
@@ -7882,19 +7885,19 @@
         <v>174</v>
       </c>
       <c r="M55" s="168">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
       <c r="N55" s="88">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>980000</v>
       </c>
       <c r="O55" s="88">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>127400</v>
       </c>
       <c r="P55" s="100">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="Q55" s="60">
@@ -7932,7 +7935,7 @@
         <v>9</v>
       </c>
       <c r="G56" s="56" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>Bérköltség</v>
       </c>
       <c r="H56" s="25" t="s">
@@ -7942,7 +7945,7 @@
         <v>980000</v>
       </c>
       <c r="J56" s="57">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>127400</v>
       </c>
       <c r="K56" s="58">
@@ -7952,19 +7955,19 @@
         <v>174</v>
       </c>
       <c r="M56" s="168">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
       <c r="N56" s="88">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>980000</v>
       </c>
       <c r="O56" s="88">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>127400</v>
       </c>
       <c r="P56" s="100">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="Q56" s="60">
@@ -8002,7 +8005,7 @@
         <v>9</v>
       </c>
       <c r="G57" s="56" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>Bérköltség</v>
       </c>
       <c r="H57" s="25" t="s">
@@ -8012,7 +8015,7 @@
         <v>980000</v>
       </c>
       <c r="J57" s="57">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>127400</v>
       </c>
       <c r="K57" s="58">
@@ -8022,19 +8025,19 @@
         <v>174</v>
       </c>
       <c r="M57" s="168">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
       <c r="N57" s="88">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>980000</v>
       </c>
       <c r="O57" s="88">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>127400</v>
       </c>
       <c r="P57" s="100">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="Q57" s="60">
@@ -8072,7 +8075,7 @@
         <v>9</v>
       </c>
       <c r="G58" s="56" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>Bérköltség</v>
       </c>
       <c r="H58" s="25" t="s">
@@ -8082,7 +8085,7 @@
         <v>980000</v>
       </c>
       <c r="J58" s="57">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>127400</v>
       </c>
       <c r="K58" s="58">
@@ -8092,19 +8095,19 @@
         <v>174</v>
       </c>
       <c r="M58" s="168">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
       <c r="N58" s="88">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>980000</v>
       </c>
       <c r="O58" s="88">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>127400</v>
       </c>
       <c r="P58" s="100">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="Q58" s="60">
@@ -8142,7 +8145,7 @@
         <v>9</v>
       </c>
       <c r="G59" s="56" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>Bérköltség</v>
       </c>
       <c r="H59" s="25" t="s">
@@ -8152,7 +8155,7 @@
         <v>980000</v>
       </c>
       <c r="J59" s="57">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>127400</v>
       </c>
       <c r="K59" s="58">
@@ -8162,19 +8165,19 @@
         <v>174</v>
       </c>
       <c r="M59" s="168">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
       <c r="N59" s="88">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>980000</v>
       </c>
       <c r="O59" s="88">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>127400</v>
       </c>
       <c r="P59" s="100">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="Q59" s="60">
@@ -8212,7 +8215,7 @@
         <v>9</v>
       </c>
       <c r="G60" s="56" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>Bérköltség</v>
       </c>
       <c r="H60" s="25" t="s">
@@ -8222,7 +8225,7 @@
         <v>980000</v>
       </c>
       <c r="J60" s="57">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>127400</v>
       </c>
       <c r="K60" s="58">
@@ -8232,19 +8235,19 @@
         <v>174</v>
       </c>
       <c r="M60" s="168">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
       <c r="N60" s="88">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>980000</v>
       </c>
       <c r="O60" s="88">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>127400</v>
       </c>
       <c r="P60" s="100">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="Q60" s="60">
@@ -8282,7 +8285,7 @@
         <v>8</v>
       </c>
       <c r="G61" s="56" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>Bérköltség</v>
       </c>
       <c r="H61" s="25" t="s">
@@ -8314,7 +8317,7 @@
         <v>18738</v>
       </c>
       <c r="P61" s="100">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>-2.6123301977154512E-7</v>
       </c>
       <c r="Q61" s="60">
@@ -8354,7 +8357,7 @@
         <v>8</v>
       </c>
       <c r="G62" s="56" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>Bérköltség</v>
       </c>
       <c r="H62" s="25" t="s">
@@ -8364,7 +8367,7 @@
         <v>440000</v>
       </c>
       <c r="J62" s="57">
-        <f t="shared" ref="J62:J71" si="67">ROUND(I62*Q62,0)</f>
+        <f t="shared" ref="J62:J71" si="68">ROUND(I62*Q62,0)</f>
         <v>57200</v>
       </c>
       <c r="K62" s="58">
@@ -8374,19 +8377,19 @@
         <v>95</v>
       </c>
       <c r="M62" s="168">
-        <f t="shared" ref="M62:M71" si="68">L62/K62</f>
+        <f t="shared" ref="M62:M71" si="69">L62/K62</f>
         <v>0.54597701149425293</v>
       </c>
       <c r="N62" s="88">
-        <f t="shared" ref="N62:N71" si="69">ROUND(I62*M62,0)</f>
+        <f t="shared" ref="N62:N71" si="70">ROUND(I62*M62,0)</f>
         <v>240230</v>
       </c>
       <c r="O62" s="88">
-        <f t="shared" ref="O62:O71" si="70">ROUND(N62*Q62,0)</f>
+        <f t="shared" ref="O62:O71" si="71">ROUND(N62*Q62,0)</f>
         <v>31230</v>
       </c>
       <c r="P62" s="100">
-        <f t="shared" ref="P62:P71" si="71">L62/K62-N62/I62</f>
+        <f t="shared" ref="P62:P71" si="72">L62/K62-N62/I62</f>
         <v>-2.6123301977154512E-7</v>
       </c>
       <c r="Q62" s="60">
@@ -8438,7 +8441,7 @@
         <v>9</v>
       </c>
       <c r="G63" s="56" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>Bérköltség</v>
       </c>
       <c r="H63" s="25" t="s">
@@ -8448,7 +8451,7 @@
         <v>440000</v>
       </c>
       <c r="J63" s="57">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>57200</v>
       </c>
       <c r="K63" s="58">
@@ -8458,19 +8461,19 @@
         <v>95</v>
       </c>
       <c r="M63" s="168">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.54597701149425293</v>
       </c>
       <c r="N63" s="88">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>240230</v>
       </c>
       <c r="O63" s="88">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>31230</v>
       </c>
       <c r="P63" s="100">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>-2.6123301977154512E-7</v>
       </c>
       <c r="Q63" s="60">
@@ -8508,7 +8511,7 @@
         <v>9</v>
       </c>
       <c r="G64" s="56" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>Bérköltség</v>
       </c>
       <c r="H64" s="25" t="s">
@@ -8518,7 +8521,7 @@
         <v>440000</v>
       </c>
       <c r="J64" s="57">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>57200</v>
       </c>
       <c r="K64" s="58">
@@ -8528,19 +8531,19 @@
         <v>95</v>
       </c>
       <c r="M64" s="168">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.54597701149425293</v>
       </c>
       <c r="N64" s="88">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>240230</v>
       </c>
       <c r="O64" s="88">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>31230</v>
       </c>
       <c r="P64" s="100">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>-2.6123301977154512E-7</v>
       </c>
       <c r="Q64" s="60">
@@ -8578,7 +8581,7 @@
         <v>9</v>
       </c>
       <c r="G65" s="56" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>Bérköltség</v>
       </c>
       <c r="H65" s="25" t="s">
@@ -8588,7 +8591,7 @@
         <v>440000</v>
       </c>
       <c r="J65" s="57">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>57200</v>
       </c>
       <c r="K65" s="58">
@@ -8598,19 +8601,19 @@
         <v>95</v>
       </c>
       <c r="M65" s="168">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.54597701149425293</v>
       </c>
       <c r="N65" s="88">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>240230</v>
       </c>
       <c r="O65" s="88">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>31230</v>
       </c>
       <c r="P65" s="100">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>-2.6123301977154512E-7</v>
       </c>
       <c r="Q65" s="60">
@@ -8648,7 +8651,7 @@
         <v>9</v>
       </c>
       <c r="G66" s="56" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>Bérköltség</v>
       </c>
       <c r="H66" s="25" t="s">
@@ -8658,7 +8661,7 @@
         <v>440000</v>
       </c>
       <c r="J66" s="57">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>57200</v>
       </c>
       <c r="K66" s="58">
@@ -8668,19 +8671,19 @@
         <v>95</v>
       </c>
       <c r="M66" s="168">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.54597701149425293</v>
       </c>
       <c r="N66" s="88">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>240230</v>
       </c>
       <c r="O66" s="88">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>31230</v>
       </c>
       <c r="P66" s="100">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>-2.6123301977154512E-7</v>
       </c>
       <c r="Q66" s="60">
@@ -8718,7 +8721,7 @@
         <v>9</v>
       </c>
       <c r="G67" s="56" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>Bérköltség</v>
       </c>
       <c r="H67" s="25" t="s">
@@ -8728,7 +8731,7 @@
         <v>440000</v>
       </c>
       <c r="J67" s="57">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>57200</v>
       </c>
       <c r="K67" s="58">
@@ -8738,19 +8741,19 @@
         <v>95</v>
       </c>
       <c r="M67" s="168">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.54597701149425293</v>
       </c>
       <c r="N67" s="88">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>240230</v>
       </c>
       <c r="O67" s="88">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>31230</v>
       </c>
       <c r="P67" s="100">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>-2.6123301977154512E-7</v>
       </c>
       <c r="Q67" s="60">
@@ -8788,7 +8791,7 @@
         <v>9</v>
       </c>
       <c r="G68" s="56" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>Bérköltség</v>
       </c>
       <c r="H68" s="25" t="s">
@@ -8798,7 +8801,7 @@
         <v>440000</v>
       </c>
       <c r="J68" s="57">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>57200</v>
       </c>
       <c r="K68" s="58">
@@ -8808,19 +8811,19 @@
         <v>95</v>
       </c>
       <c r="M68" s="168">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.54597701149425293</v>
       </c>
       <c r="N68" s="88">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>240230</v>
       </c>
       <c r="O68" s="88">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>31230</v>
       </c>
       <c r="P68" s="100">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>-2.6123301977154512E-7</v>
       </c>
       <c r="Q68" s="60">
@@ -8858,7 +8861,7 @@
         <v>9</v>
       </c>
       <c r="G69" s="56" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>Bérköltség</v>
       </c>
       <c r="H69" s="25" t="s">
@@ -8868,7 +8871,7 @@
         <v>440000</v>
       </c>
       <c r="J69" s="57">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>57200</v>
       </c>
       <c r="K69" s="58">
@@ -8878,19 +8881,19 @@
         <v>95</v>
       </c>
       <c r="M69" s="168">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.54597701149425293</v>
       </c>
       <c r="N69" s="88">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>240230</v>
       </c>
       <c r="O69" s="88">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>31230</v>
       </c>
       <c r="P69" s="100">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>-2.6123301977154512E-7</v>
       </c>
       <c r="Q69" s="60">
@@ -8928,7 +8931,7 @@
         <v>9</v>
       </c>
       <c r="G70" s="56" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>Bérköltség</v>
       </c>
       <c r="H70" s="25" t="s">
@@ -8938,7 +8941,7 @@
         <v>440000</v>
       </c>
       <c r="J70" s="57">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>57200</v>
       </c>
       <c r="K70" s="58">
@@ -8948,19 +8951,19 @@
         <v>95</v>
       </c>
       <c r="M70" s="168">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.54597701149425293</v>
       </c>
       <c r="N70" s="88">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>240230</v>
       </c>
       <c r="O70" s="88">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>31230</v>
       </c>
       <c r="P70" s="100">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>-2.6123301977154512E-7</v>
       </c>
       <c r="Q70" s="60">
@@ -8998,7 +9001,7 @@
         <v>8</v>
       </c>
       <c r="G71" s="56" t="str">
-        <f t="shared" ref="G71:G75" si="72">IF(H71="Napidíj","Nem rendszeres juttatás","Bérköltség")</f>
+        <f t="shared" ref="G71:G75" si="73">IF(H71="Napidíj","Nem rendszeres juttatás","Bérköltség")</f>
         <v>Bérköltség</v>
       </c>
       <c r="H71" s="25" t="s">
@@ -9008,7 +9011,7 @@
         <v>650000</v>
       </c>
       <c r="J71" s="57">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>84500</v>
       </c>
       <c r="K71" s="58">
@@ -9018,19 +9021,19 @@
         <v>27</v>
       </c>
       <c r="M71" s="168">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.15517241379310345</v>
       </c>
       <c r="N71" s="88">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>100862</v>
       </c>
       <c r="O71" s="88">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>13112</v>
       </c>
       <c r="P71" s="100">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1.0610079576034437E-7</v>
       </c>
       <c r="Q71" s="60">
@@ -9082,7 +9085,7 @@
         <v>8</v>
       </c>
       <c r="G72" s="56" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>Bérköltség</v>
       </c>
       <c r="H72" s="25" t="s">
@@ -9092,7 +9095,7 @@
         <v>650000</v>
       </c>
       <c r="J72" s="57">
-        <f t="shared" ref="J72" si="73">ROUND(I72*Q72,0)</f>
+        <f t="shared" ref="J72" si="74">ROUND(I72*Q72,0)</f>
         <v>84500</v>
       </c>
       <c r="K72" s="58">
@@ -9102,19 +9105,19 @@
         <v>27</v>
       </c>
       <c r="M72" s="168">
-        <f t="shared" ref="M72" si="74">L72/K72</f>
+        <f t="shared" ref="M72" si="75">L72/K72</f>
         <v>0.15517241379310345</v>
       </c>
       <c r="N72" s="88">
-        <f t="shared" ref="N72" si="75">ROUND(I72*M72,0)</f>
+        <f t="shared" ref="N72" si="76">ROUND(I72*M72,0)</f>
         <v>100862</v>
       </c>
       <c r="O72" s="88">
-        <f t="shared" ref="O72" si="76">ROUND(N72*Q72,0)</f>
+        <f t="shared" ref="O72" si="77">ROUND(N72*Q72,0)</f>
         <v>13112</v>
       </c>
       <c r="P72" s="100">
-        <f t="shared" ref="P72" si="77">L72/K72-N72/I72</f>
+        <f t="shared" ref="P72" si="78">L72/K72-N72/I72</f>
         <v>1.0610079576034437E-7</v>
       </c>
       <c r="Q72" s="60">
@@ -9166,7 +9169,7 @@
         <v>9</v>
       </c>
       <c r="G73" s="56" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>Bérköltség</v>
       </c>
       <c r="H73" s="25" t="s">
@@ -9176,7 +9179,7 @@
         <v>650000</v>
       </c>
       <c r="J73" s="57">
-        <f t="shared" ref="J73:J75" si="78">ROUND(I73*Q73,0)</f>
+        <f t="shared" ref="J73:J75" si="79">ROUND(I73*Q73,0)</f>
         <v>84500</v>
       </c>
       <c r="K73" s="58">
@@ -9186,19 +9189,19 @@
         <v>27</v>
       </c>
       <c r="M73" s="168">
-        <f t="shared" ref="M73:M75" si="79">L73/K73</f>
+        <f t="shared" ref="M73:M75" si="80">L73/K73</f>
         <v>0.15517241379310345</v>
       </c>
       <c r="N73" s="88">
-        <f t="shared" ref="N73:N75" si="80">ROUND(I73*M73,0)</f>
+        <f t="shared" ref="N73:N75" si="81">ROUND(I73*M73,0)</f>
         <v>100862</v>
       </c>
       <c r="O73" s="88">
-        <f t="shared" ref="O73:O75" si="81">ROUND(N73*Q73,0)</f>
+        <f t="shared" ref="O73:O75" si="82">ROUND(N73*Q73,0)</f>
         <v>13112</v>
       </c>
       <c r="P73" s="100">
-        <f t="shared" ref="P73:P75" si="82">L73/K73-N73/I73</f>
+        <f t="shared" ref="P73:P75" si="83">L73/K73-N73/I73</f>
         <v>1.0610079576034437E-7</v>
       </c>
       <c r="Q73" s="60">
@@ -9236,7 +9239,7 @@
         <v>9</v>
       </c>
       <c r="G74" s="56" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>Bérköltség</v>
       </c>
       <c r="H74" s="25" t="s">
@@ -9246,7 +9249,7 @@
         <v>650000</v>
       </c>
       <c r="J74" s="57">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>84500</v>
       </c>
       <c r="K74" s="58">
@@ -9256,19 +9259,19 @@
         <v>27</v>
       </c>
       <c r="M74" s="168">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0.15517241379310345</v>
       </c>
       <c r="N74" s="88">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>100862</v>
       </c>
       <c r="O74" s="88">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>13112</v>
       </c>
       <c r="P74" s="100">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>1.0610079576034437E-7</v>
       </c>
       <c r="Q74" s="60">
@@ -9306,7 +9309,7 @@
         <v>9</v>
       </c>
       <c r="G75" s="56" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>Bérköltség</v>
       </c>
       <c r="H75" s="25" t="s">
@@ -9316,7 +9319,7 @@
         <v>650000</v>
       </c>
       <c r="J75" s="57">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>84500</v>
       </c>
       <c r="K75" s="58">
@@ -9326,19 +9329,19 @@
         <v>27</v>
       </c>
       <c r="M75" s="168">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0.15517241379310345</v>
       </c>
       <c r="N75" s="88">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>100862</v>
       </c>
       <c r="O75" s="88">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>13112</v>
       </c>
       <c r="P75" s="100">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>1.0610079576034437E-7</v>
       </c>
       <c r="Q75" s="60">
@@ -9408,7 +9411,7 @@
         <v>59540</v>
       </c>
       <c r="P76" s="100">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q76" s="60">
@@ -9468,7 +9471,7 @@
         <v>916000</v>
       </c>
       <c r="J77" s="57">
-        <f t="shared" ref="J77:J144" si="83">ROUND(I77*Q77,0)</f>
+        <f t="shared" ref="J77:J144" si="84">ROUND(I77*Q77,0)</f>
         <v>119080</v>
       </c>
       <c r="K77" s="58">
@@ -9478,19 +9481,19 @@
         <v>87</v>
       </c>
       <c r="M77" s="168">
-        <f t="shared" ref="M77:M144" si="84">L77/K77</f>
+        <f t="shared" ref="M77:M144" si="85">L77/K77</f>
         <v>0.5</v>
       </c>
       <c r="N77" s="88">
-        <f t="shared" ref="N77:N144" si="85">ROUND(I77*M77,0)</f>
+        <f t="shared" ref="N77:N144" si="86">ROUND(I77*M77,0)</f>
         <v>458000</v>
       </c>
       <c r="O77" s="88">
-        <f t="shared" ref="O77:O144" si="86">ROUND(N77*Q77,0)</f>
+        <f t="shared" ref="O77:O144" si="87">ROUND(N77*Q77,0)</f>
         <v>59540</v>
       </c>
       <c r="P77" s="100">
-        <f t="shared" ref="P77:P144" si="87">L77/K77-N77/I77</f>
+        <f t="shared" ref="P77:P144" si="88">L77/K77-N77/I77</f>
         <v>0</v>
       </c>
       <c r="Q77" s="60">
@@ -9550,7 +9553,7 @@
         <v>916000</v>
       </c>
       <c r="J78" s="57">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>119080</v>
       </c>
       <c r="K78" s="58">
@@ -9560,19 +9563,19 @@
         <v>87</v>
       </c>
       <c r="M78" s="168">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>0.5</v>
       </c>
       <c r="N78" s="88">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>458000</v>
       </c>
       <c r="O78" s="88">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>59540</v>
       </c>
       <c r="P78" s="100">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="Q78" s="60">
@@ -9618,7 +9621,7 @@
         <v>916000</v>
       </c>
       <c r="J79" s="57">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>119080</v>
       </c>
       <c r="K79" s="58">
@@ -9628,19 +9631,19 @@
         <v>87</v>
       </c>
       <c r="M79" s="168">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>0.5</v>
       </c>
       <c r="N79" s="88">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>458000</v>
       </c>
       <c r="O79" s="88">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>59540</v>
       </c>
       <c r="P79" s="100">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="Q79" s="60">
@@ -9686,7 +9689,7 @@
         <v>916000</v>
       </c>
       <c r="J80" s="57">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>119080</v>
       </c>
       <c r="K80" s="58">
@@ -9696,19 +9699,19 @@
         <v>87</v>
       </c>
       <c r="M80" s="168">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>0.5</v>
       </c>
       <c r="N80" s="88">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>458000</v>
       </c>
       <c r="O80" s="88">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>59540</v>
       </c>
       <c r="P80" s="100">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="Q80" s="60">
@@ -9754,7 +9757,7 @@
         <v>916000</v>
       </c>
       <c r="J81" s="57">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>119080</v>
       </c>
       <c r="K81" s="58">
@@ -9764,19 +9767,19 @@
         <v>87</v>
       </c>
       <c r="M81" s="168">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>0.5</v>
       </c>
       <c r="N81" s="88">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>458000</v>
       </c>
       <c r="O81" s="88">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>59540</v>
       </c>
       <c r="P81" s="100">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="Q81" s="60">
@@ -9822,7 +9825,7 @@
         <v>916000</v>
       </c>
       <c r="J82" s="57">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>119080</v>
       </c>
       <c r="K82" s="58">
@@ -9832,19 +9835,19 @@
         <v>87</v>
       </c>
       <c r="M82" s="168">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>0.5</v>
       </c>
       <c r="N82" s="88">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>458000</v>
       </c>
       <c r="O82" s="88">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>59540</v>
       </c>
       <c r="P82" s="100">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="Q82" s="60">
@@ -9890,7 +9893,7 @@
         <v>916000</v>
       </c>
       <c r="J83" s="57">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>119080</v>
       </c>
       <c r="K83" s="58">
@@ -9900,19 +9903,19 @@
         <v>87</v>
       </c>
       <c r="M83" s="168">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>0.5</v>
       </c>
       <c r="N83" s="88">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>458000</v>
       </c>
       <c r="O83" s="88">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>59540</v>
       </c>
       <c r="P83" s="100">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="Q83" s="60">
@@ -9958,7 +9961,7 @@
         <v>916000</v>
       </c>
       <c r="J84" s="57">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>119080</v>
       </c>
       <c r="K84" s="58">
@@ -9968,19 +9971,19 @@
         <v>87</v>
       </c>
       <c r="M84" s="168">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>0.5</v>
       </c>
       <c r="N84" s="88">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>458000</v>
       </c>
       <c r="O84" s="88">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>59540</v>
       </c>
       <c r="P84" s="100">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="Q84" s="60">
@@ -10026,7 +10029,7 @@
         <v>916000</v>
       </c>
       <c r="J85" s="57">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>119080</v>
       </c>
       <c r="K85" s="58">
@@ -10036,19 +10039,19 @@
         <v>87</v>
       </c>
       <c r="M85" s="168">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>0.5</v>
       </c>
       <c r="N85" s="88">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>458000</v>
       </c>
       <c r="O85" s="88">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>59540</v>
       </c>
       <c r="P85" s="100">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="Q85" s="60">
@@ -10094,7 +10097,7 @@
         <v>120000</v>
       </c>
       <c r="J86" s="57">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>15600</v>
       </c>
       <c r="K86" s="58">
@@ -10104,19 +10107,19 @@
         <v>44</v>
       </c>
       <c r="M86" s="168">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>1</v>
       </c>
       <c r="N86" s="88">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>120000</v>
       </c>
       <c r="O86" s="88">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>15600</v>
       </c>
       <c r="P86" s="100">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="Q86" s="60">
@@ -10178,7 +10181,7 @@
         <v>120000</v>
       </c>
       <c r="J87" s="57">
-        <f t="shared" ref="J87:J89" si="88">ROUND(I87*Q87,0)</f>
+        <f t="shared" ref="J87:J89" si="89">ROUND(I87*Q87,0)</f>
         <v>15600</v>
       </c>
       <c r="K87" s="58">
@@ -10188,19 +10191,19 @@
         <v>44</v>
       </c>
       <c r="M87" s="168">
-        <f t="shared" ref="M87:M89" si="89">L87/K87</f>
+        <f t="shared" ref="M87:M89" si="90">L87/K87</f>
         <v>1</v>
       </c>
       <c r="N87" s="88">
-        <f t="shared" ref="N87:N89" si="90">ROUND(I87*M87,0)</f>
+        <f t="shared" ref="N87:N89" si="91">ROUND(I87*M87,0)</f>
         <v>120000</v>
       </c>
       <c r="O87" s="88">
-        <f t="shared" ref="O87:O89" si="91">ROUND(N87*Q87,0)</f>
+        <f t="shared" ref="O87:O89" si="92">ROUND(N87*Q87,0)</f>
         <v>15600</v>
       </c>
       <c r="P87" s="100">
-        <f t="shared" ref="P87:P89" si="92">L87/K87-N87/I87</f>
+        <f t="shared" ref="P87:P89" si="93">L87/K87-N87/I87</f>
         <v>0</v>
       </c>
       <c r="Q87" s="60">
@@ -10248,7 +10251,7 @@
         <v>120000</v>
       </c>
       <c r="J88" s="57">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>15600</v>
       </c>
       <c r="K88" s="58">
@@ -10258,19 +10261,19 @@
         <v>44</v>
       </c>
       <c r="M88" s="168">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>1</v>
       </c>
       <c r="N88" s="88">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>120000</v>
       </c>
       <c r="O88" s="88">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>15600</v>
       </c>
       <c r="P88" s="100">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="Q88" s="60">
@@ -10318,7 +10321,7 @@
         <v>120000</v>
       </c>
       <c r="J89" s="57">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>15600</v>
       </c>
       <c r="K89" s="58">
@@ -10328,19 +10331,19 @@
         <v>44</v>
       </c>
       <c r="M89" s="168">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>1</v>
       </c>
       <c r="N89" s="88">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>120000</v>
       </c>
       <c r="O89" s="88">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>15600</v>
       </c>
       <c r="P89" s="100">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="Q89" s="60">
@@ -10378,7 +10381,7 @@
         <v>8</v>
       </c>
       <c r="G90" s="56" t="str">
-        <f t="shared" ref="G90:G143" si="93">IF(H90="Napidíj","Nem rendszeres juttatás","Bérköltség")</f>
+        <f t="shared" ref="G90:G143" si="94">IF(H90="Napidíj","Nem rendszeres juttatás","Bérköltség")</f>
         <v>Bérköltség</v>
       </c>
       <c r="H90" s="25" t="s">
@@ -10410,7 +10413,7 @@
         <v>37440</v>
       </c>
       <c r="P90" s="100">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="Q90" s="60">
@@ -10450,7 +10453,7 @@
         <v>8</v>
       </c>
       <c r="G91" s="56" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>Bérköltség</v>
       </c>
       <c r="H91" s="25" t="s">
@@ -10460,7 +10463,7 @@
         <v>480000</v>
       </c>
       <c r="J91" s="57">
-        <f t="shared" ref="J91:J99" si="94">ROUND(I91*Q91,0)</f>
+        <f t="shared" ref="J91:J99" si="95">ROUND(I91*Q91,0)</f>
         <v>62400</v>
       </c>
       <c r="K91" s="58">
@@ -10470,19 +10473,19 @@
         <v>87</v>
       </c>
       <c r="M91" s="168">
-        <f t="shared" ref="M91:M99" si="95">L91/K91</f>
+        <f t="shared" ref="M91:M99" si="96">L91/K91</f>
         <v>1</v>
       </c>
       <c r="N91" s="88">
-        <f t="shared" ref="N91:N99" si="96">ROUND(I91*M91,0)</f>
+        <f t="shared" ref="N91:N99" si="97">ROUND(I91*M91,0)</f>
         <v>480000</v>
       </c>
       <c r="O91" s="88">
-        <f t="shared" ref="O91:O99" si="97">ROUND(N91*Q91,0)</f>
+        <f t="shared" ref="O91:O99" si="98">ROUND(N91*Q91,0)</f>
         <v>62400</v>
       </c>
       <c r="P91" s="100">
-        <f t="shared" ref="P91:P134" si="98">L91/K91-N91/I91</f>
+        <f t="shared" ref="P91:P134" si="99">L91/K91-N91/I91</f>
         <v>0</v>
       </c>
       <c r="Q91" s="60">
@@ -10534,7 +10537,7 @@
         <v>9</v>
       </c>
       <c r="G92" s="56" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>Bérköltség</v>
       </c>
       <c r="H92" s="25" t="s">
@@ -10544,7 +10547,7 @@
         <v>480000</v>
       </c>
       <c r="J92" s="57">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>62400</v>
       </c>
       <c r="K92" s="58">
@@ -10554,19 +10557,19 @@
         <v>87</v>
       </c>
       <c r="M92" s="168">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>1</v>
       </c>
       <c r="N92" s="88">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>480000</v>
       </c>
       <c r="O92" s="88">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>62400</v>
       </c>
       <c r="P92" s="100">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="Q92" s="60">
@@ -10604,7 +10607,7 @@
         <v>9</v>
       </c>
       <c r="G93" s="56" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>Bérköltség</v>
       </c>
       <c r="H93" s="25" t="s">
@@ -10614,7 +10617,7 @@
         <v>480000</v>
       </c>
       <c r="J93" s="57">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>62400</v>
       </c>
       <c r="K93" s="58">
@@ -10624,19 +10627,19 @@
         <v>87</v>
       </c>
       <c r="M93" s="168">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>1</v>
       </c>
       <c r="N93" s="88">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>480000</v>
       </c>
       <c r="O93" s="88">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>62400</v>
       </c>
       <c r="P93" s="100">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="Q93" s="60">
@@ -10674,7 +10677,7 @@
         <v>9</v>
       </c>
       <c r="G94" s="56" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>Bérköltség</v>
       </c>
       <c r="H94" s="25" t="s">
@@ -10684,7 +10687,7 @@
         <v>480000</v>
       </c>
       <c r="J94" s="57">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>62400</v>
       </c>
       <c r="K94" s="58">
@@ -10694,19 +10697,19 @@
         <v>87</v>
       </c>
       <c r="M94" s="168">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>1</v>
       </c>
       <c r="N94" s="88">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>480000</v>
       </c>
       <c r="O94" s="88">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>62400</v>
       </c>
       <c r="P94" s="100">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="Q94" s="60">
@@ -10744,7 +10747,7 @@
         <v>9</v>
       </c>
       <c r="G95" s="56" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>Bérköltség</v>
       </c>
       <c r="H95" s="25" t="s">
@@ -10754,7 +10757,7 @@
         <v>480000</v>
       </c>
       <c r="J95" s="57">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>62400</v>
       </c>
       <c r="K95" s="58">
@@ -10764,19 +10767,19 @@
         <v>87</v>
       </c>
       <c r="M95" s="168">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>1</v>
       </c>
       <c r="N95" s="88">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>480000</v>
       </c>
       <c r="O95" s="88">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>62400</v>
       </c>
       <c r="P95" s="100">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="Q95" s="60">
@@ -10814,7 +10817,7 @@
         <v>9</v>
       </c>
       <c r="G96" s="56" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>Bérköltség</v>
       </c>
       <c r="H96" s="25" t="s">
@@ -10824,7 +10827,7 @@
         <v>480000</v>
       </c>
       <c r="J96" s="57">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>62400</v>
       </c>
       <c r="K96" s="58">
@@ -10834,19 +10837,19 @@
         <v>87</v>
       </c>
       <c r="M96" s="168">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>1</v>
       </c>
       <c r="N96" s="88">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>480000</v>
       </c>
       <c r="O96" s="88">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>62400</v>
       </c>
       <c r="P96" s="100">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="Q96" s="60">
@@ -10884,7 +10887,7 @@
         <v>9</v>
       </c>
       <c r="G97" s="56" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>Bérköltség</v>
       </c>
       <c r="H97" s="25" t="s">
@@ -10894,7 +10897,7 @@
         <v>480000</v>
       </c>
       <c r="J97" s="57">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>62400</v>
       </c>
       <c r="K97" s="58">
@@ -10904,19 +10907,19 @@
         <v>87</v>
       </c>
       <c r="M97" s="168">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>1</v>
       </c>
       <c r="N97" s="88">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>480000</v>
       </c>
       <c r="O97" s="88">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>62400</v>
       </c>
       <c r="P97" s="100">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="Q97" s="60">
@@ -10954,7 +10957,7 @@
         <v>9</v>
       </c>
       <c r="G98" s="56" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>Bérköltség</v>
       </c>
       <c r="H98" s="25" t="s">
@@ -10964,7 +10967,7 @@
         <v>480000</v>
       </c>
       <c r="J98" s="57">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>62400</v>
       </c>
       <c r="K98" s="58">
@@ -10974,19 +10977,19 @@
         <v>87</v>
       </c>
       <c r="M98" s="168">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>1</v>
       </c>
       <c r="N98" s="88">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>480000</v>
       </c>
       <c r="O98" s="88">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>62400</v>
       </c>
       <c r="P98" s="100">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="Q98" s="60">
@@ -11024,7 +11027,7 @@
         <v>9</v>
       </c>
       <c r="G99" s="56" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>Bérköltség</v>
       </c>
       <c r="H99" s="25" t="s">
@@ -11034,7 +11037,7 @@
         <v>480000</v>
       </c>
       <c r="J99" s="57">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>62400</v>
       </c>
       <c r="K99" s="58">
@@ -11044,19 +11047,19 @@
         <v>87</v>
       </c>
       <c r="M99" s="168">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>1</v>
       </c>
       <c r="N99" s="88">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>480000</v>
       </c>
       <c r="O99" s="88">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>62400</v>
       </c>
       <c r="P99" s="100">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="Q99" s="60">
@@ -11094,7 +11097,7 @@
         <v>8</v>
       </c>
       <c r="G100" s="56" t="str">
-        <f t="shared" ref="G100" si="99">IF(H100="Napidíj","Nem rendszeres juttatás","Bérköltség")</f>
+        <f t="shared" ref="G100" si="100">IF(H100="Napidíj","Nem rendszeres juttatás","Bérköltség")</f>
         <v>Bérköltség</v>
       </c>
       <c r="H100" s="25" t="s">
@@ -11104,7 +11107,7 @@
         <v>1590000</v>
       </c>
       <c r="J100" s="57">
-        <f t="shared" ref="J100" si="100">ROUND(I100*Q100,0)</f>
+        <f t="shared" ref="J100" si="101">ROUND(I100*Q100,0)</f>
         <v>206700</v>
       </c>
       <c r="K100" s="58">
@@ -11114,19 +11117,19 @@
         <v>23</v>
       </c>
       <c r="M100" s="168">
-        <f t="shared" ref="M100" si="101">L100/K100</f>
+        <f t="shared" ref="M100" si="102">L100/K100</f>
         <v>0.13218390804597702</v>
       </c>
       <c r="N100" s="88">
-        <f t="shared" ref="N100" si="102">ROUND(I100*M100,0)</f>
+        <f t="shared" ref="N100" si="103">ROUND(I100*M100,0)</f>
         <v>210172</v>
       </c>
       <c r="O100" s="88">
-        <f t="shared" ref="O100" si="103">ROUND(N100*Q100,0)</f>
+        <f t="shared" ref="O100" si="104">ROUND(N100*Q100,0)</f>
         <v>27322</v>
       </c>
       <c r="P100" s="100">
-        <f t="shared" ref="P100" si="104">L100/K100-N100/I100</f>
+        <f t="shared" ref="P100" si="105">L100/K100-N100/I100</f>
         <v>2.6024723487338974E-7</v>
       </c>
       <c r="Q100" s="60">
@@ -11178,7 +11181,7 @@
         <v>9</v>
       </c>
       <c r="G101" s="56" t="str">
-        <f t="shared" ref="G101:G105" si="105">IF(H101="Napidíj","Nem rendszeres juttatás","Bérköltség")</f>
+        <f t="shared" ref="G101:G105" si="106">IF(H101="Napidíj","Nem rendszeres juttatás","Bérköltség")</f>
         <v>Bérköltség</v>
       </c>
       <c r="H101" s="25" t="s">
@@ -11188,7 +11191,7 @@
         <v>1590000</v>
       </c>
       <c r="J101" s="57">
-        <f t="shared" ref="J101:J105" si="106">ROUND(I101*Q101,0)</f>
+        <f t="shared" ref="J101:J105" si="107">ROUND(I101*Q101,0)</f>
         <v>206700</v>
       </c>
       <c r="K101" s="58">
@@ -11198,19 +11201,19 @@
         <v>23</v>
       </c>
       <c r="M101" s="168">
-        <f t="shared" ref="M101:M105" si="107">L101/K101</f>
+        <f t="shared" ref="M101:M105" si="108">L101/K101</f>
         <v>0.13218390804597702</v>
       </c>
       <c r="N101" s="88">
-        <f t="shared" ref="N101:N105" si="108">ROUND(I101*M101,0)</f>
+        <f t="shared" ref="N101:N105" si="109">ROUND(I101*M101,0)</f>
         <v>210172</v>
       </c>
       <c r="O101" s="88">
-        <f t="shared" ref="O101:O105" si="109">ROUND(N101*Q101,0)</f>
+        <f t="shared" ref="O101:O105" si="110">ROUND(N101*Q101,0)</f>
         <v>27322</v>
       </c>
       <c r="P101" s="100">
-        <f t="shared" ref="P101:P105" si="110">L101/K101-N101/I101</f>
+        <f t="shared" ref="P101:P105" si="111">L101/K101-N101/I101</f>
         <v>2.6024723487338974E-7</v>
       </c>
       <c r="Q101" s="60">
@@ -11248,7 +11251,7 @@
         <v>9</v>
       </c>
       <c r="G102" s="56" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>Bérköltség</v>
       </c>
       <c r="H102" s="25" t="s">
@@ -11258,7 +11261,7 @@
         <v>1590000</v>
       </c>
       <c r="J102" s="57">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>206700</v>
       </c>
       <c r="K102" s="58">
@@ -11268,19 +11271,19 @@
         <v>23</v>
       </c>
       <c r="M102" s="168">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0.13218390804597702</v>
       </c>
       <c r="N102" s="88">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>210172</v>
       </c>
       <c r="O102" s="88">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>27322</v>
       </c>
       <c r="P102" s="100">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>2.6024723487338974E-7</v>
       </c>
       <c r="Q102" s="60">
@@ -11318,7 +11321,7 @@
         <v>9</v>
       </c>
       <c r="G103" s="56" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>Bérköltség</v>
       </c>
       <c r="H103" s="25" t="s">
@@ -11328,7 +11331,7 @@
         <v>1590000</v>
       </c>
       <c r="J103" s="57">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>206700</v>
       </c>
       <c r="K103" s="58">
@@ -11338,19 +11341,19 @@
         <v>23</v>
       </c>
       <c r="M103" s="168">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0.13218390804597702</v>
       </c>
       <c r="N103" s="88">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>210172</v>
       </c>
       <c r="O103" s="88">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>27322</v>
       </c>
       <c r="P103" s="100">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>2.6024723487338974E-7</v>
       </c>
       <c r="Q103" s="60">
@@ -11388,7 +11391,7 @@
         <v>9</v>
       </c>
       <c r="G104" s="56" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>Bérköltség</v>
       </c>
       <c r="H104" s="25" t="s">
@@ -11398,7 +11401,7 @@
         <v>1590000</v>
       </c>
       <c r="J104" s="57">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>206700</v>
       </c>
       <c r="K104" s="58">
@@ -11408,19 +11411,19 @@
         <v>23</v>
       </c>
       <c r="M104" s="168">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0.13218390804597702</v>
       </c>
       <c r="N104" s="88">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>210172</v>
       </c>
       <c r="O104" s="88">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>27322</v>
       </c>
       <c r="P104" s="100">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>2.6024723487338974E-7</v>
       </c>
       <c r="Q104" s="60">
@@ -11458,7 +11461,7 @@
         <v>9</v>
       </c>
       <c r="G105" s="56" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>Bérköltség</v>
       </c>
       <c r="H105" s="25" t="s">
@@ -11468,7 +11471,7 @@
         <v>1590000</v>
       </c>
       <c r="J105" s="57">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>206700</v>
       </c>
       <c r="K105" s="58">
@@ -11478,19 +11481,19 @@
         <v>23</v>
       </c>
       <c r="M105" s="168">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0.13218390804597702</v>
       </c>
       <c r="N105" s="88">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>210172</v>
       </c>
       <c r="O105" s="88">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>27322</v>
       </c>
       <c r="P105" s="100">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>2.6024723487338974E-7</v>
       </c>
       <c r="Q105" s="60">
@@ -11528,7 +11531,7 @@
         <v>8</v>
       </c>
       <c r="G106" s="56" t="str">
-        <f t="shared" ref="G106" si="111">IF(H106="Napidíj","Nem rendszeres juttatás","Bérköltség")</f>
+        <f t="shared" ref="G106" si="112">IF(H106="Napidíj","Nem rendszeres juttatás","Bérköltség")</f>
         <v>Bérköltség</v>
       </c>
       <c r="H106" s="25" t="s">
@@ -11538,7 +11541,7 @@
         <v>950000</v>
       </c>
       <c r="J106" s="57">
-        <f t="shared" ref="J106" si="112">ROUND(I106*Q106,0)</f>
+        <f t="shared" ref="J106" si="113">ROUND(I106*Q106,0)</f>
         <v>123500</v>
       </c>
       <c r="K106" s="58">
@@ -11548,19 +11551,19 @@
         <v>37</v>
       </c>
       <c r="M106" s="168">
-        <f t="shared" ref="M106" si="113">L106/K106</f>
+        <f t="shared" ref="M106" si="114">L106/K106</f>
         <v>0.21264367816091953</v>
       </c>
       <c r="N106" s="88">
-        <f t="shared" ref="N106" si="114">ROUND(I106*M106,0)</f>
+        <f t="shared" ref="N106" si="115">ROUND(I106*M106,0)</f>
         <v>202011</v>
       </c>
       <c r="O106" s="88">
-        <f t="shared" ref="O106" si="115">ROUND(N106*Q106,0)</f>
+        <f t="shared" ref="O106" si="116">ROUND(N106*Q106,0)</f>
         <v>26261</v>
       </c>
       <c r="P106" s="100">
-        <f t="shared" ref="P106" si="116">L106/K106-N106/I106</f>
+        <f t="shared" ref="P106" si="117">L106/K106-N106/I106</f>
         <v>5.202661826908539E-7</v>
       </c>
       <c r="Q106" s="60">
@@ -11612,7 +11615,7 @@
         <v>8</v>
       </c>
       <c r="G107" s="56" t="str">
-        <f t="shared" ref="G107:G109" si="117">IF(H107="Napidíj","Nem rendszeres juttatás","Bérköltség")</f>
+        <f t="shared" ref="G107:G109" si="118">IF(H107="Napidíj","Nem rendszeres juttatás","Bérköltség")</f>
         <v>Bérköltség</v>
       </c>
       <c r="H107" s="25" t="s">
@@ -11622,7 +11625,7 @@
         <v>872273</v>
       </c>
       <c r="J107" s="57">
-        <f t="shared" ref="J107:J109" si="118">ROUND(I107*Q107,0)</f>
+        <f t="shared" ref="J107:J109" si="119">ROUND(I107*Q107,0)</f>
         <v>113395</v>
       </c>
       <c r="K107" s="58">
@@ -11632,19 +11635,19 @@
         <v>37</v>
       </c>
       <c r="M107" s="168">
-        <f t="shared" ref="M107:M109" si="119">L107/K107</f>
+        <f t="shared" ref="M107:M109" si="120">L107/K107</f>
         <v>0.21264367816091953</v>
       </c>
       <c r="N107" s="88">
-        <f t="shared" ref="N107:N109" si="120">ROUND(I107*M107,0)</f>
+        <f t="shared" ref="N107:N109" si="121">ROUND(I107*M107,0)</f>
         <v>185483</v>
       </c>
       <c r="O107" s="88">
-        <f t="shared" ref="O107:O109" si="121">ROUND(N107*Q107,0)</f>
+        <f t="shared" ref="O107:O109" si="122">ROUND(N107*Q107,0)</f>
         <v>24113</v>
       </c>
       <c r="P107" s="100">
-        <f t="shared" ref="P107:P109" si="122">L107/K107-N107/I107</f>
+        <f t="shared" ref="P107:P109" si="123">L107/K107-N107/I107</f>
         <v>3.8873203658806865E-7</v>
       </c>
       <c r="Q107" s="60">
@@ -11696,7 +11699,7 @@
         <v>9</v>
       </c>
       <c r="G108" s="56" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>Bérköltség</v>
       </c>
       <c r="H108" s="25" t="s">
@@ -11706,7 +11709,7 @@
         <v>950000</v>
       </c>
       <c r="J108" s="57">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>123500</v>
       </c>
       <c r="K108" s="58">
@@ -11716,19 +11719,19 @@
         <v>37</v>
       </c>
       <c r="M108" s="168">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0.21264367816091953</v>
       </c>
       <c r="N108" s="88">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>202011</v>
       </c>
       <c r="O108" s="88">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>26261</v>
       </c>
       <c r="P108" s="100">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>5.202661826908539E-7</v>
       </c>
       <c r="Q108" s="60">
@@ -11766,7 +11769,7 @@
         <v>9</v>
       </c>
       <c r="G109" s="56" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>Bérköltség</v>
       </c>
       <c r="H109" s="25" t="s">
@@ -11776,7 +11779,7 @@
         <v>950000</v>
       </c>
       <c r="J109" s="57">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>123500</v>
       </c>
       <c r="K109" s="58">
@@ -11786,19 +11789,19 @@
         <v>37</v>
       </c>
       <c r="M109" s="168">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0.21264367816091953</v>
       </c>
       <c r="N109" s="88">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>202011</v>
       </c>
       <c r="O109" s="88">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>26261</v>
       </c>
       <c r="P109" s="100">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>5.202661826908539E-7</v>
       </c>
       <c r="Q109" s="60">
@@ -11836,7 +11839,7 @@
         <v>9</v>
       </c>
       <c r="G110" s="56" t="str">
-        <f t="shared" ref="G110" si="123">IF(H110="Napidíj","Nem rendszeres juttatás","Bérköltség")</f>
+        <f t="shared" ref="G110" si="124">IF(H110="Napidíj","Nem rendszeres juttatás","Bérköltség")</f>
         <v>Bérköltség</v>
       </c>
       <c r="H110" s="25" t="s">
@@ -11846,7 +11849,7 @@
         <v>636000</v>
       </c>
       <c r="J110" s="57">
-        <f t="shared" ref="J110" si="124">ROUND(I110*Q110,0)</f>
+        <f t="shared" ref="J110" si="125">ROUND(I110*Q110,0)</f>
         <v>82680</v>
       </c>
       <c r="K110" s="58">
@@ -11856,19 +11859,19 @@
         <v>174</v>
       </c>
       <c r="M110" s="168">
-        <f t="shared" ref="M110" si="125">L110/K110</f>
+        <f t="shared" ref="M110" si="126">L110/K110</f>
         <v>1</v>
       </c>
       <c r="N110" s="88">
-        <f t="shared" ref="N110" si="126">ROUND(I110*M110,0)</f>
+        <f t="shared" ref="N110" si="127">ROUND(I110*M110,0)</f>
         <v>636000</v>
       </c>
       <c r="O110" s="88">
-        <f t="shared" ref="O110" si="127">ROUND(N110*Q110,0)</f>
+        <f t="shared" ref="O110" si="128">ROUND(N110*Q110,0)</f>
         <v>82680</v>
       </c>
       <c r="P110" s="100">
-        <f t="shared" ref="P110" si="128">L110/K110-N110/I110</f>
+        <f t="shared" ref="P110" si="129">L110/K110-N110/I110</f>
         <v>0</v>
       </c>
       <c r="Q110" s="60">
@@ -11906,7 +11909,7 @@
         <v>9</v>
       </c>
       <c r="G111" s="56" t="str">
-        <f t="shared" ref="G111:G125" si="129">IF(H111="Napidíj","Nem rendszeres juttatás","Bérköltség")</f>
+        <f t="shared" ref="G111:G125" si="130">IF(H111="Napidíj","Nem rendszeres juttatás","Bérköltség")</f>
         <v>Bérköltség</v>
       </c>
       <c r="H111" s="25" t="s">
@@ -11916,7 +11919,7 @@
         <v>636000</v>
       </c>
       <c r="J111" s="57">
-        <f t="shared" ref="J111:J125" si="130">ROUND(I111*Q111,0)</f>
+        <f t="shared" ref="J111:J125" si="131">ROUND(I111*Q111,0)</f>
         <v>82680</v>
       </c>
       <c r="K111" s="58">
@@ -11926,19 +11929,19 @@
         <v>174</v>
       </c>
       <c r="M111" s="168">
-        <f t="shared" ref="M111:M125" si="131">L111/K111</f>
+        <f t="shared" ref="M111:M125" si="132">L111/K111</f>
         <v>1</v>
       </c>
       <c r="N111" s="88">
-        <f t="shared" ref="N111:N125" si="132">ROUND(I111*M111,0)</f>
+        <f t="shared" ref="N111:N125" si="133">ROUND(I111*M111,0)</f>
         <v>636000</v>
       </c>
       <c r="O111" s="88">
-        <f t="shared" ref="O111:O125" si="133">ROUND(N111*Q111,0)</f>
+        <f t="shared" ref="O111:O125" si="134">ROUND(N111*Q111,0)</f>
         <v>82680</v>
       </c>
       <c r="P111" s="100">
-        <f t="shared" ref="P111:P125" si="134">L111/K111-N111/I111</f>
+        <f t="shared" ref="P111:P125" si="135">L111/K111-N111/I111</f>
         <v>0</v>
       </c>
       <c r="Q111" s="60">
@@ -11976,7 +11979,7 @@
         <v>9</v>
       </c>
       <c r="G112" s="56" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>Bérköltség</v>
       </c>
       <c r="H112" s="25" t="s">
@@ -11986,7 +11989,7 @@
         <v>636000</v>
       </c>
       <c r="J112" s="57">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>82680</v>
       </c>
       <c r="K112" s="58">
@@ -11996,19 +11999,19 @@
         <v>174</v>
       </c>
       <c r="M112" s="168">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>1</v>
       </c>
       <c r="N112" s="88">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>636000</v>
       </c>
       <c r="O112" s="88">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>82680</v>
       </c>
       <c r="P112" s="100">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="Q112" s="60">
@@ -12046,7 +12049,7 @@
         <v>9</v>
       </c>
       <c r="G113" s="56" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>Bérköltség</v>
       </c>
       <c r="H113" s="25" t="s">
@@ -12056,7 +12059,7 @@
         <v>636000</v>
       </c>
       <c r="J113" s="57">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>82680</v>
       </c>
       <c r="K113" s="58">
@@ -12066,19 +12069,19 @@
         <v>174</v>
       </c>
       <c r="M113" s="168">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>1</v>
       </c>
       <c r="N113" s="88">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>636000</v>
       </c>
       <c r="O113" s="88">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>82680</v>
       </c>
       <c r="P113" s="100">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="Q113" s="60">
@@ -12116,7 +12119,7 @@
         <v>9</v>
       </c>
       <c r="G114" s="56" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>Bérköltség</v>
       </c>
       <c r="H114" s="25" t="s">
@@ -12126,7 +12129,7 @@
         <v>636000</v>
       </c>
       <c r="J114" s="57">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>82680</v>
       </c>
       <c r="K114" s="58">
@@ -12136,19 +12139,19 @@
         <v>174</v>
       </c>
       <c r="M114" s="168">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>1</v>
       </c>
       <c r="N114" s="88">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>636000</v>
       </c>
       <c r="O114" s="88">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>82680</v>
       </c>
       <c r="P114" s="100">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="Q114" s="60">
@@ -12186,7 +12189,7 @@
         <v>9</v>
       </c>
       <c r="G115" s="56" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>Bérköltség</v>
       </c>
       <c r="H115" s="25" t="s">
@@ -12196,7 +12199,7 @@
         <v>636000</v>
       </c>
       <c r="J115" s="57">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>82680</v>
       </c>
       <c r="K115" s="58">
@@ -12206,19 +12209,19 @@
         <v>174</v>
       </c>
       <c r="M115" s="168">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>1</v>
       </c>
       <c r="N115" s="88">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>636000</v>
       </c>
       <c r="O115" s="88">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>82680</v>
       </c>
       <c r="P115" s="100">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="Q115" s="60">
@@ -12256,7 +12259,7 @@
         <v>9</v>
       </c>
       <c r="G116" s="56" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>Bérköltség</v>
       </c>
       <c r="H116" s="25" t="s">
@@ -12266,7 +12269,7 @@
         <v>636000</v>
       </c>
       <c r="J116" s="57">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>82680</v>
       </c>
       <c r="K116" s="58">
@@ -12276,19 +12279,19 @@
         <v>174</v>
       </c>
       <c r="M116" s="168">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>1</v>
       </c>
       <c r="N116" s="88">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>636000</v>
       </c>
       <c r="O116" s="88">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>82680</v>
       </c>
       <c r="P116" s="100">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="Q116" s="60">
@@ -12326,7 +12329,7 @@
         <v>9</v>
       </c>
       <c r="G117" s="56" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>Bérköltség</v>
       </c>
       <c r="H117" s="25" t="s">
@@ -12336,7 +12339,7 @@
         <v>636000</v>
       </c>
       <c r="J117" s="57">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>82680</v>
       </c>
       <c r="K117" s="58">
@@ -12346,19 +12349,19 @@
         <v>174</v>
       </c>
       <c r="M117" s="168">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>1</v>
       </c>
       <c r="N117" s="88">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>636000</v>
       </c>
       <c r="O117" s="88">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>82680</v>
       </c>
       <c r="P117" s="100">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="Q117" s="60">
@@ -12394,7 +12397,7 @@
         <v>9</v>
       </c>
       <c r="G118" s="56" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>Bérköltség</v>
       </c>
       <c r="H118" s="25" t="s">
@@ -12404,7 +12407,7 @@
         <v>200000</v>
       </c>
       <c r="J118" s="57">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>26000</v>
       </c>
       <c r="K118" s="58">
@@ -12414,19 +12417,19 @@
         <v>174</v>
       </c>
       <c r="M118" s="168">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>1</v>
       </c>
       <c r="N118" s="88">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>200000</v>
       </c>
       <c r="O118" s="88">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>26000</v>
       </c>
       <c r="P118" s="100">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="Q118" s="60">
@@ -12460,7 +12463,7 @@
         <v>9</v>
       </c>
       <c r="G119" s="56" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>Bérköltség</v>
       </c>
       <c r="H119" s="25" t="s">
@@ -12470,7 +12473,7 @@
         <v>400000</v>
       </c>
       <c r="J119" s="57">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>52000</v>
       </c>
       <c r="K119" s="58">
@@ -12480,19 +12483,19 @@
         <v>174</v>
       </c>
       <c r="M119" s="168">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>1</v>
       </c>
       <c r="N119" s="88">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>400000</v>
       </c>
       <c r="O119" s="88">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>52000</v>
       </c>
       <c r="P119" s="100">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="Q119" s="60">
@@ -12526,7 +12529,7 @@
         <v>9</v>
       </c>
       <c r="G120" s="56" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>Bérköltség</v>
       </c>
       <c r="H120" s="25" t="s">
@@ -12536,7 +12539,7 @@
         <v>400000</v>
       </c>
       <c r="J120" s="57">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>52000</v>
       </c>
       <c r="K120" s="58">
@@ -12546,19 +12549,19 @@
         <v>174</v>
       </c>
       <c r="M120" s="168">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>1</v>
       </c>
       <c r="N120" s="88">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>400000</v>
       </c>
       <c r="O120" s="88">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>52000</v>
       </c>
       <c r="P120" s="100">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="Q120" s="60">
@@ -12592,7 +12595,7 @@
         <v>9</v>
       </c>
       <c r="G121" s="56" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>Bérköltség</v>
       </c>
       <c r="H121" s="25" t="s">
@@ -12602,7 +12605,7 @@
         <v>400000</v>
       </c>
       <c r="J121" s="57">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>52000</v>
       </c>
       <c r="K121" s="58">
@@ -12612,19 +12615,19 @@
         <v>174</v>
       </c>
       <c r="M121" s="168">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>1</v>
       </c>
       <c r="N121" s="88">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>400000</v>
       </c>
       <c r="O121" s="88">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>52000</v>
       </c>
       <c r="P121" s="100">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="Q121" s="60">
@@ -12658,7 +12661,7 @@
         <v>9</v>
       </c>
       <c r="G122" s="56" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>Bérköltség</v>
       </c>
       <c r="H122" s="25" t="s">
@@ -12668,7 +12671,7 @@
         <v>400000</v>
       </c>
       <c r="J122" s="57">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>52000</v>
       </c>
       <c r="K122" s="58">
@@ -12678,19 +12681,19 @@
         <v>174</v>
       </c>
       <c r="M122" s="168">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>1</v>
       </c>
       <c r="N122" s="88">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>400000</v>
       </c>
       <c r="O122" s="88">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>52000</v>
       </c>
       <c r="P122" s="100">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="Q122" s="60">
@@ -12724,7 +12727,7 @@
         <v>9</v>
       </c>
       <c r="G123" s="56" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>Bérköltség</v>
       </c>
       <c r="H123" s="25" t="s">
@@ -12734,7 +12737,7 @@
         <v>400000</v>
       </c>
       <c r="J123" s="57">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>52000</v>
       </c>
       <c r="K123" s="58">
@@ -12744,19 +12747,19 @@
         <v>174</v>
       </c>
       <c r="M123" s="168">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>1</v>
       </c>
       <c r="N123" s="88">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>400000</v>
       </c>
       <c r="O123" s="88">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>52000</v>
       </c>
       <c r="P123" s="100">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="Q123" s="60">
@@ -12790,7 +12793,7 @@
         <v>9</v>
       </c>
       <c r="G124" s="56" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>Bérköltség</v>
       </c>
       <c r="H124" s="25" t="s">
@@ -12800,7 +12803,7 @@
         <v>400000</v>
       </c>
       <c r="J124" s="57">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>52000</v>
       </c>
       <c r="K124" s="58">
@@ -12810,19 +12813,19 @@
         <v>174</v>
       </c>
       <c r="M124" s="168">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>1</v>
       </c>
       <c r="N124" s="88">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>400000</v>
       </c>
       <c r="O124" s="88">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>52000</v>
       </c>
       <c r="P124" s="100">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="Q124" s="60">
@@ -12856,7 +12859,7 @@
         <v>9</v>
       </c>
       <c r="G125" s="56" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>Bérköltség</v>
       </c>
       <c r="H125" s="25" t="s">
@@ -12866,7 +12869,7 @@
         <v>400000</v>
       </c>
       <c r="J125" s="57">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>52000</v>
       </c>
       <c r="K125" s="58">
@@ -12876,19 +12879,19 @@
         <v>174</v>
       </c>
       <c r="M125" s="168">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>1</v>
       </c>
       <c r="N125" s="88">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>400000</v>
       </c>
       <c r="O125" s="88">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>52000</v>
       </c>
       <c r="P125" s="100">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="Q125" s="60">
@@ -12922,7 +12925,7 @@
         <v>9</v>
       </c>
       <c r="G126" s="56" t="str">
-        <f t="shared" ref="G126" si="135">IF(H126="Napidíj","Nem rendszeres juttatás","Bérköltség")</f>
+        <f t="shared" ref="G126" si="136">IF(H126="Napidíj","Nem rendszeres juttatás","Bérköltség")</f>
         <v>Bérköltség</v>
       </c>
       <c r="H126" s="25" t="s">
@@ -12932,7 +12935,7 @@
         <v>200000</v>
       </c>
       <c r="J126" s="57">
-        <f t="shared" ref="J126" si="136">ROUND(I126*Q126,0)</f>
+        <f t="shared" ref="J126" si="137">ROUND(I126*Q126,0)</f>
         <v>26000</v>
       </c>
       <c r="K126" s="58">
@@ -12942,19 +12945,19 @@
         <v>174</v>
       </c>
       <c r="M126" s="168">
-        <f t="shared" ref="M126" si="137">L126/K126</f>
+        <f t="shared" ref="M126" si="138">L126/K126</f>
         <v>1</v>
       </c>
       <c r="N126" s="88">
-        <f t="shared" ref="N126" si="138">ROUND(I126*M126,0)</f>
+        <f t="shared" ref="N126" si="139">ROUND(I126*M126,0)</f>
         <v>200000</v>
       </c>
       <c r="O126" s="88">
-        <f t="shared" ref="O126" si="139">ROUND(N126*Q126,0)</f>
+        <f t="shared" ref="O126" si="140">ROUND(N126*Q126,0)</f>
         <v>26000</v>
       </c>
       <c r="P126" s="100">
-        <f t="shared" ref="P126" si="140">L126/K126-N126/I126</f>
+        <f t="shared" ref="P126" si="141">L126/K126-N126/I126</f>
         <v>0</v>
       </c>
       <c r="Q126" s="60">
@@ -12988,7 +12991,7 @@
         <v>9</v>
       </c>
       <c r="G127" s="56" t="str">
-        <f t="shared" ref="G127:G133" si="141">IF(H127="Napidíj","Nem rendszeres juttatás","Bérköltség")</f>
+        <f t="shared" ref="G127:G133" si="142">IF(H127="Napidíj","Nem rendszeres juttatás","Bérköltség")</f>
         <v>Bérköltség</v>
       </c>
       <c r="H127" s="25" t="s">
@@ -12998,7 +13001,7 @@
         <v>400000</v>
       </c>
       <c r="J127" s="57">
-        <f t="shared" ref="J127:J133" si="142">ROUND(I127*Q127,0)</f>
+        <f t="shared" ref="J127:J133" si="143">ROUND(I127*Q127,0)</f>
         <v>52000</v>
       </c>
       <c r="K127" s="58">
@@ -13008,19 +13011,19 @@
         <v>174</v>
       </c>
       <c r="M127" s="168">
-        <f t="shared" ref="M127:M133" si="143">L127/K127</f>
+        <f t="shared" ref="M127:M133" si="144">L127/K127</f>
         <v>1</v>
       </c>
       <c r="N127" s="88">
-        <f t="shared" ref="N127:N133" si="144">ROUND(I127*M127,0)</f>
+        <f t="shared" ref="N127:N133" si="145">ROUND(I127*M127,0)</f>
         <v>400000</v>
       </c>
       <c r="O127" s="88">
-        <f t="shared" ref="O127:O133" si="145">ROUND(N127*Q127,0)</f>
+        <f t="shared" ref="O127:O133" si="146">ROUND(N127*Q127,0)</f>
         <v>52000</v>
       </c>
       <c r="P127" s="100">
-        <f t="shared" ref="P127:P133" si="146">L127/K127-N127/I127</f>
+        <f t="shared" ref="P127:P133" si="147">L127/K127-N127/I127</f>
         <v>0</v>
       </c>
       <c r="Q127" s="60">
@@ -13054,7 +13057,7 @@
         <v>9</v>
       </c>
       <c r="G128" s="56" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>Bérköltség</v>
       </c>
       <c r="H128" s="25" t="s">
@@ -13064,7 +13067,7 @@
         <v>400000</v>
       </c>
       <c r="J128" s="57">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>52000</v>
       </c>
       <c r="K128" s="58">
@@ -13074,19 +13077,19 @@
         <v>174</v>
       </c>
       <c r="M128" s="168">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>1</v>
       </c>
       <c r="N128" s="88">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>400000</v>
       </c>
       <c r="O128" s="88">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>52000</v>
       </c>
       <c r="P128" s="100">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="Q128" s="60">
@@ -13120,7 +13123,7 @@
         <v>9</v>
       </c>
       <c r="G129" s="56" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>Bérköltség</v>
       </c>
       <c r="H129" s="25" t="s">
@@ -13130,7 +13133,7 @@
         <v>400000</v>
       </c>
       <c r="J129" s="57">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>52000</v>
       </c>
       <c r="K129" s="58">
@@ -13140,19 +13143,19 @@
         <v>174</v>
       </c>
       <c r="M129" s="168">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>1</v>
       </c>
       <c r="N129" s="88">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>400000</v>
       </c>
       <c r="O129" s="88">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>52000</v>
       </c>
       <c r="P129" s="100">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="Q129" s="60">
@@ -13186,7 +13189,7 @@
         <v>9</v>
       </c>
       <c r="G130" s="56" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>Bérköltség</v>
       </c>
       <c r="H130" s="25" t="s">
@@ -13196,7 +13199,7 @@
         <v>400000</v>
       </c>
       <c r="J130" s="57">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>52000</v>
       </c>
       <c r="K130" s="58">
@@ -13206,19 +13209,19 @@
         <v>174</v>
       </c>
       <c r="M130" s="168">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>1</v>
       </c>
       <c r="N130" s="88">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>400000</v>
       </c>
       <c r="O130" s="88">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>52000</v>
       </c>
       <c r="P130" s="100">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="Q130" s="60">
@@ -13252,7 +13255,7 @@
         <v>9</v>
       </c>
       <c r="G131" s="56" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>Bérköltség</v>
       </c>
       <c r="H131" s="25" t="s">
@@ -13262,7 +13265,7 @@
         <v>400000</v>
       </c>
       <c r="J131" s="57">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>52000</v>
       </c>
       <c r="K131" s="58">
@@ -13272,19 +13275,19 @@
         <v>174</v>
       </c>
       <c r="M131" s="168">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>1</v>
       </c>
       <c r="N131" s="88">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>400000</v>
       </c>
       <c r="O131" s="88">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>52000</v>
       </c>
       <c r="P131" s="100">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="Q131" s="60">
@@ -13318,7 +13321,7 @@
         <v>9</v>
       </c>
       <c r="G132" s="56" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>Bérköltség</v>
       </c>
       <c r="H132" s="25" t="s">
@@ -13328,7 +13331,7 @@
         <v>400000</v>
       </c>
       <c r="J132" s="57">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>52000</v>
       </c>
       <c r="K132" s="58">
@@ -13338,19 +13341,19 @@
         <v>174</v>
       </c>
       <c r="M132" s="168">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>1</v>
       </c>
       <c r="N132" s="88">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>400000</v>
       </c>
       <c r="O132" s="88">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>52000</v>
       </c>
       <c r="P132" s="100">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="Q132" s="60">
@@ -13384,7 +13387,7 @@
         <v>9</v>
       </c>
       <c r="G133" s="56" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>Bérköltség</v>
       </c>
       <c r="H133" s="25" t="s">
@@ -13394,7 +13397,7 @@
         <v>400000</v>
       </c>
       <c r="J133" s="57">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>52000</v>
       </c>
       <c r="K133" s="58">
@@ -13404,19 +13407,19 @@
         <v>174</v>
       </c>
       <c r="M133" s="168">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>1</v>
       </c>
       <c r="N133" s="88">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>400000</v>
       </c>
       <c r="O133" s="88">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>52000</v>
       </c>
       <c r="P133" s="100">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="Q133" s="60">
@@ -13452,7 +13455,7 @@
         <v>8</v>
       </c>
       <c r="G134" s="56" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>Bérköltség</v>
       </c>
       <c r="H134" s="25" t="s">
@@ -13483,7 +13486,7 @@
         <v>26516</v>
       </c>
       <c r="P134" s="100">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>3.6388355570958236E-2</v>
       </c>
       <c r="Q134" s="60">
@@ -13535,7 +13538,7 @@
         <v>8</v>
       </c>
       <c r="G135" s="56" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>Bérköltség</v>
       </c>
       <c r="H135" s="25" t="s">
@@ -13545,7 +13548,7 @@
         <v>995000</v>
       </c>
       <c r="J135" s="57">
-        <f t="shared" ref="J135:J143" si="147">ROUND(I135*Q135,0)</f>
+        <f t="shared" ref="J135:J143" si="148">ROUND(I135*Q135,0)</f>
         <v>129350</v>
       </c>
       <c r="K135" s="58">
@@ -13555,18 +13558,18 @@
         <v>42</v>
       </c>
       <c r="M135" s="168">
-        <f t="shared" ref="M135:M143" si="148">L135/K135</f>
+        <f t="shared" ref="M135:M143" si="149">L135/K135</f>
         <v>0.2413793103448276</v>
       </c>
       <c r="N135" s="88">
         <v>203966</v>
       </c>
       <c r="O135" s="88">
-        <f t="shared" ref="O135:O143" si="149">ROUND(N135*Q135,0)</f>
+        <f t="shared" ref="O135:O143" si="150">ROUND(N135*Q135,0)</f>
         <v>26516</v>
       </c>
       <c r="P135" s="100">
-        <f t="shared" ref="P135:P143" si="150">L135/K135-N135/I135</f>
+        <f t="shared" ref="P135:P143" si="151">L135/K135-N135/I135</f>
         <v>3.6388355570958236E-2</v>
       </c>
       <c r="Q135" s="60">
@@ -13618,7 +13621,7 @@
         <v>9</v>
       </c>
       <c r="G136" s="56" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>Bérköltség</v>
       </c>
       <c r="H136" s="25" t="s">
@@ -13628,7 +13631,7 @@
         <v>995000</v>
       </c>
       <c r="J136" s="57">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>129350</v>
       </c>
       <c r="K136" s="58">
@@ -13638,18 +13641,18 @@
         <v>42</v>
       </c>
       <c r="M136" s="168">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.2413793103448276</v>
       </c>
       <c r="N136" s="88">
         <v>203966</v>
       </c>
       <c r="O136" s="88">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>26516</v>
       </c>
       <c r="P136" s="100">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>3.6388355570958236E-2</v>
       </c>
       <c r="Q136" s="60">
@@ -13687,7 +13690,7 @@
         <v>9</v>
       </c>
       <c r="G137" s="56" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>Bérköltség</v>
       </c>
       <c r="H137" s="25" t="s">
@@ -13697,7 +13700,7 @@
         <v>995000</v>
       </c>
       <c r="J137" s="57">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>129350</v>
       </c>
       <c r="K137" s="58">
@@ -13707,18 +13710,18 @@
         <v>42</v>
       </c>
       <c r="M137" s="168">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.2413793103448276</v>
       </c>
       <c r="N137" s="88">
         <v>203966</v>
       </c>
       <c r="O137" s="88">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>26516</v>
       </c>
       <c r="P137" s="100">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>3.6388355570958236E-2</v>
       </c>
       <c r="Q137" s="60">
@@ -13756,7 +13759,7 @@
         <v>9</v>
       </c>
       <c r="G138" s="56" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>Bérköltség</v>
       </c>
       <c r="H138" s="25" t="s">
@@ -13766,7 +13769,7 @@
         <v>995000</v>
       </c>
       <c r="J138" s="57">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>129350</v>
       </c>
       <c r="K138" s="58">
@@ -13776,18 +13779,18 @@
         <v>42</v>
       </c>
       <c r="M138" s="168">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.2413793103448276</v>
       </c>
       <c r="N138" s="88">
         <v>203966</v>
       </c>
       <c r="O138" s="88">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>26516</v>
       </c>
       <c r="P138" s="100">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>3.6388355570958236E-2</v>
       </c>
       <c r="Q138" s="60">
@@ -13825,7 +13828,7 @@
         <v>9</v>
       </c>
       <c r="G139" s="56" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>Bérköltség</v>
       </c>
       <c r="H139" s="25" t="s">
@@ -13835,7 +13838,7 @@
         <v>995000</v>
       </c>
       <c r="J139" s="57">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>129350</v>
       </c>
       <c r="K139" s="58">
@@ -13845,18 +13848,18 @@
         <v>42</v>
       </c>
       <c r="M139" s="168">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.2413793103448276</v>
       </c>
       <c r="N139" s="88">
         <v>203966</v>
       </c>
       <c r="O139" s="88">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>26516</v>
       </c>
       <c r="P139" s="100">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>3.6388355570958236E-2</v>
       </c>
       <c r="Q139" s="60">
@@ -13894,7 +13897,7 @@
         <v>9</v>
       </c>
       <c r="G140" s="56" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>Bérköltség</v>
       </c>
       <c r="H140" s="25" t="s">
@@ -13904,7 +13907,7 @@
         <v>995000</v>
       </c>
       <c r="J140" s="57">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>129350</v>
       </c>
       <c r="K140" s="58">
@@ -13914,18 +13917,18 @@
         <v>42</v>
       </c>
       <c r="M140" s="168">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.2413793103448276</v>
       </c>
       <c r="N140" s="88">
         <v>203966</v>
       </c>
       <c r="O140" s="88">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>26516</v>
       </c>
       <c r="P140" s="100">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>3.6388355570958236E-2</v>
       </c>
       <c r="Q140" s="60">
@@ -13963,7 +13966,7 @@
         <v>9</v>
       </c>
       <c r="G141" s="56" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>Bérköltség</v>
       </c>
       <c r="H141" s="25" t="s">
@@ -13973,7 +13976,7 @@
         <v>995000</v>
       </c>
       <c r="J141" s="57">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>129350</v>
       </c>
       <c r="K141" s="58">
@@ -13983,18 +13986,18 @@
         <v>42</v>
       </c>
       <c r="M141" s="168">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.2413793103448276</v>
       </c>
       <c r="N141" s="88">
         <v>203966</v>
       </c>
       <c r="O141" s="88">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>26516</v>
       </c>
       <c r="P141" s="100">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>3.6388355570958236E-2</v>
       </c>
       <c r="Q141" s="60">
@@ -14032,7 +14035,7 @@
         <v>9</v>
       </c>
       <c r="G142" s="56" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>Bérköltség</v>
       </c>
       <c r="H142" s="25" t="s">
@@ -14042,7 +14045,7 @@
         <v>995000</v>
       </c>
       <c r="J142" s="57">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>129350</v>
       </c>
       <c r="K142" s="58">
@@ -14052,18 +14055,18 @@
         <v>42</v>
       </c>
       <c r="M142" s="168">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.2413793103448276</v>
       </c>
       <c r="N142" s="88">
         <v>203966</v>
       </c>
       <c r="O142" s="88">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>26516</v>
       </c>
       <c r="P142" s="100">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>3.6388355570958236E-2</v>
       </c>
       <c r="Q142" s="60">
@@ -14101,7 +14104,7 @@
         <v>9</v>
       </c>
       <c r="G143" s="56" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>Bérköltség</v>
       </c>
       <c r="H143" s="25" t="s">
@@ -14111,7 +14114,7 @@
         <v>995000</v>
       </c>
       <c r="J143" s="57">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>129350</v>
       </c>
       <c r="K143" s="58">
@@ -14121,18 +14124,18 @@
         <v>42</v>
       </c>
       <c r="M143" s="168">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.2413793103448276</v>
       </c>
       <c r="N143" s="88">
         <v>203966</v>
       </c>
       <c r="O143" s="88">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>26516</v>
       </c>
       <c r="P143" s="100">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>3.6388355570958236E-2</v>
       </c>
       <c r="Q143" s="60">
@@ -14180,7 +14183,7 @@
         <v>690000</v>
       </c>
       <c r="J144" s="57">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>89700</v>
       </c>
       <c r="K144" s="58">
@@ -14190,19 +14193,19 @@
         <v>92</v>
       </c>
       <c r="M144" s="168">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>0.52873563218390807</v>
       </c>
       <c r="N144" s="88">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>364828</v>
       </c>
       <c r="O144" s="88">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>47428</v>
       </c>
       <c r="P144" s="100">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>-5.9970014987253961E-7</v>
       </c>
       <c r="Q144" s="60">
@@ -14259,7 +14262,7 @@
         <v>690000</v>
       </c>
       <c r="J145" s="57">
-        <f t="shared" ref="J145:J147" si="151">ROUND(I145*Q145,0)</f>
+        <f t="shared" ref="J145:J147" si="152">ROUND(I145*Q145,0)</f>
         <v>89700</v>
       </c>
       <c r="K145" s="58">
@@ -14269,19 +14272,19 @@
         <v>92</v>
       </c>
       <c r="M145" s="168">
-        <f t="shared" ref="M145:M147" si="152">L145/K145</f>
+        <f t="shared" ref="M145:M147" si="153">L145/K145</f>
         <v>0.52873563218390807</v>
       </c>
       <c r="N145" s="88">
-        <f t="shared" ref="N145:N147" si="153">ROUND(I145*M145,0)</f>
+        <f t="shared" ref="N145:N147" si="154">ROUND(I145*M145,0)</f>
         <v>364828</v>
       </c>
       <c r="O145" s="88">
-        <f t="shared" ref="O145:O147" si="154">ROUND(N145*Q145,0)</f>
+        <f t="shared" ref="O145:O147" si="155">ROUND(N145*Q145,0)</f>
         <v>47428</v>
       </c>
       <c r="P145" s="100">
-        <f t="shared" ref="P145:P147" si="155">L145/K145-N145/I145</f>
+        <f t="shared" ref="P145:P147" si="156">L145/K145-N145/I145</f>
         <v>-5.9970014987253961E-7</v>
       </c>
       <c r="Q145" s="60">
@@ -14341,7 +14344,7 @@
         <v>690000</v>
       </c>
       <c r="J146" s="57">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>89700</v>
       </c>
       <c r="K146" s="58">
@@ -14351,19 +14354,19 @@
         <v>92</v>
       </c>
       <c r="M146" s="168">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.52873563218390807</v>
       </c>
       <c r="N146" s="88">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>364828</v>
       </c>
       <c r="O146" s="88">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>47428</v>
       </c>
       <c r="P146" s="100">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>-5.9970014987253961E-7</v>
       </c>
       <c r="Q146" s="60">
@@ -14423,7 +14426,7 @@
         <v>710250</v>
       </c>
       <c r="J147" s="57">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>92333</v>
       </c>
       <c r="K147" s="58">
@@ -14433,19 +14436,19 @@
         <v>47</v>
       </c>
       <c r="M147" s="168">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.27011494252873564</v>
       </c>
       <c r="N147" s="88">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>191849</v>
       </c>
       <c r="O147" s="88">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>24940</v>
       </c>
       <c r="P147" s="100">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>1.9420068214648367E-7</v>
       </c>
       <c r="Q147" s="60">
@@ -14481,7 +14484,7 @@
         <v>9</v>
       </c>
       <c r="G148" s="56" t="str">
-        <f t="shared" ref="G148:G150" si="156">IF(H148="Napidíj","Nem rendszeres juttatás","Bérköltség")</f>
+        <f t="shared" ref="G148:G150" si="157">IF(H148="Napidíj","Nem rendszeres juttatás","Bérköltség")</f>
         <v>Bérköltség</v>
       </c>
       <c r="H148" s="25" t="s">
@@ -14491,7 +14494,7 @@
         <v>710250</v>
       </c>
       <c r="J148" s="57">
-        <f t="shared" ref="J148" si="157">ROUND(I148*Q148,0)</f>
+        <f t="shared" ref="J148" si="158">ROUND(I148*Q148,0)</f>
         <v>92333</v>
       </c>
       <c r="K148" s="58">
@@ -14501,19 +14504,19 @@
         <v>47</v>
       </c>
       <c r="M148" s="168">
-        <f t="shared" ref="M148" si="158">L148/K148</f>
+        <f t="shared" ref="M148" si="159">L148/K148</f>
         <v>0.27011494252873564</v>
       </c>
       <c r="N148" s="88">
-        <f t="shared" ref="N148" si="159">ROUND(I148*M148,0)</f>
+        <f t="shared" ref="N148" si="160">ROUND(I148*M148,0)</f>
         <v>191849</v>
       </c>
       <c r="O148" s="88">
-        <f t="shared" ref="O148" si="160">ROUND(N148*Q148,0)</f>
+        <f t="shared" ref="O148" si="161">ROUND(N148*Q148,0)</f>
         <v>24940</v>
       </c>
       <c r="P148" s="100">
-        <f t="shared" ref="P148" si="161">L148/K148-N148/I148</f>
+        <f t="shared" ref="P148" si="162">L148/K148-N148/I148</f>
         <v>1.9420068214648367E-7</v>
       </c>
       <c r="Q148" s="60">
@@ -14549,7 +14552,7 @@
         <v>9</v>
       </c>
       <c r="G149" s="56" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>Bérköltség</v>
       </c>
       <c r="H149" s="25" t="s">
@@ -14559,7 +14562,7 @@
         <v>710250</v>
       </c>
       <c r="J149" s="57">
-        <f t="shared" ref="J149:J150" si="162">ROUND(I149*Q149,0)</f>
+        <f t="shared" ref="J149:J150" si="163">ROUND(I149*Q149,0)</f>
         <v>92333</v>
       </c>
       <c r="K149" s="58">
@@ -14569,19 +14572,19 @@
         <v>47</v>
       </c>
       <c r="M149" s="168">
-        <f t="shared" ref="M149:M150" si="163">L149/K149</f>
+        <f t="shared" ref="M149:M150" si="164">L149/K149</f>
         <v>0.27011494252873564</v>
       </c>
       <c r="N149" s="88">
-        <f t="shared" ref="N149:N150" si="164">ROUND(I149*M149,0)</f>
+        <f t="shared" ref="N149:N150" si="165">ROUND(I149*M149,0)</f>
         <v>191849</v>
       </c>
       <c r="O149" s="88">
-        <f t="shared" ref="O149:O150" si="165">ROUND(N149*Q149,0)</f>
+        <f t="shared" ref="O149:O150" si="166">ROUND(N149*Q149,0)</f>
         <v>24940</v>
       </c>
       <c r="P149" s="100">
-        <f t="shared" ref="P149:P150" si="166">L149/K149-N149/I149</f>
+        <f t="shared" ref="P149:P150" si="167">L149/K149-N149/I149</f>
         <v>1.9420068214648367E-7</v>
       </c>
       <c r="Q149" s="60">
@@ -14617,7 +14620,7 @@
         <v>9</v>
       </c>
       <c r="G150" s="56" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>Bérköltség</v>
       </c>
       <c r="H150" s="25" t="s">
@@ -14627,7 +14630,7 @@
         <v>710250</v>
       </c>
       <c r="J150" s="57">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>92333</v>
       </c>
       <c r="K150" s="58">
@@ -14637,19 +14640,19 @@
         <v>47</v>
       </c>
       <c r="M150" s="168">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>0.27011494252873564</v>
       </c>
       <c r="N150" s="88">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>191849</v>
       </c>
       <c r="O150" s="88">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>24940</v>
       </c>
       <c r="P150" s="100">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>1.9420068214648367E-7</v>
       </c>
       <c r="Q150" s="60">
@@ -14865,7 +14868,7 @@
       <c r="E159" s="42"/>
       <c r="F159" s="56"/>
       <c r="G159" s="56" t="str">
-        <f t="shared" ref="G159:G174" si="167">IF(H159="Napidíj","Nem rendszeres juttatás","Bérköltség")</f>
+        <f t="shared" ref="G159:G174" si="168">IF(H159="Napidíj","Nem rendszeres juttatás","Bérköltség")</f>
         <v>Bérköltség</v>
       </c>
       <c r="H159" s="25"/>
@@ -14891,7 +14894,7 @@
       <c r="E160" s="42"/>
       <c r="F160" s="56"/>
       <c r="G160" s="56" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>Bérköltség</v>
       </c>
       <c r="H160" s="25"/>
@@ -14902,7 +14905,7 @@
       <c r="M160" s="58"/>
       <c r="N160" s="59"/>
       <c r="O160" s="88">
-        <f t="shared" ref="O160" si="168">ROUND(N160*0.9*Q160,0)</f>
+        <f t="shared" ref="O160" si="169">ROUND(N160*0.9*Q160,0)</f>
         <v>0</v>
       </c>
       <c r="P160" s="60"/>
@@ -14923,7 +14926,7 @@
       <c r="E161" s="42"/>
       <c r="F161" s="56"/>
       <c r="G161" s="56" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>Bérköltség</v>
       </c>
       <c r="H161" s="25"/>
@@ -14934,7 +14937,7 @@
       <c r="M161" s="58"/>
       <c r="N161" s="59"/>
       <c r="O161" s="88">
-        <f t="shared" ref="O161" si="169">ROUND(N161*0.9*Q161,0)</f>
+        <f t="shared" ref="O161" si="170">ROUND(N161*0.9*Q161,0)</f>
         <v>0</v>
       </c>
       <c r="P161" s="60"/>
@@ -14955,7 +14958,7 @@
       <c r="E162" s="42"/>
       <c r="F162" s="56"/>
       <c r="G162" s="56" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>Bérköltség</v>
       </c>
       <c r="H162" s="25"/>
@@ -14966,7 +14969,7 @@
       <c r="M162" s="58"/>
       <c r="N162" s="59"/>
       <c r="O162" s="88">
-        <f t="shared" ref="O162:O164" si="170">ROUND(N162*0.9*Q162,0)</f>
+        <f t="shared" ref="O162:O164" si="171">ROUND(N162*0.9*Q162,0)</f>
         <v>0</v>
       </c>
       <c r="P162" s="60"/>
@@ -14987,7 +14990,7 @@
       <c r="E163" s="42"/>
       <c r="F163" s="56"/>
       <c r="G163" s="56" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>Bérköltség</v>
       </c>
       <c r="H163" s="25"/>
@@ -14998,7 +15001,7 @@
       <c r="M163" s="58"/>
       <c r="N163" s="59"/>
       <c r="O163" s="88">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="P163" s="60"/>
@@ -15019,7 +15022,7 @@
       <c r="E164" s="42"/>
       <c r="F164" s="56"/>
       <c r="G164" s="56" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>Bérköltség</v>
       </c>
       <c r="H164" s="25"/>
@@ -15030,7 +15033,7 @@
       <c r="M164" s="58"/>
       <c r="N164" s="59"/>
       <c r="O164" s="88">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="P164" s="60"/>
@@ -15051,7 +15054,7 @@
       <c r="E165" s="42"/>
       <c r="F165" s="56"/>
       <c r="G165" s="56" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>Bérköltség</v>
       </c>
       <c r="H165" s="25"/>
@@ -15062,7 +15065,7 @@
       <c r="M165" s="58"/>
       <c r="N165" s="59"/>
       <c r="O165" s="88">
-        <f t="shared" ref="O165:O167" si="171">ROUND(N165*0.9*Q165,0)</f>
+        <f t="shared" ref="O165:O167" si="172">ROUND(N165*0.9*Q165,0)</f>
         <v>0</v>
       </c>
       <c r="P165" s="60"/>
@@ -15083,7 +15086,7 @@
       <c r="E166" s="42"/>
       <c r="F166" s="56"/>
       <c r="G166" s="56" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>Bérköltség</v>
       </c>
       <c r="H166" s="25"/>
@@ -15094,7 +15097,7 @@
       <c r="M166" s="58"/>
       <c r="N166" s="59"/>
       <c r="O166" s="88">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="P166" s="60"/>
@@ -15115,7 +15118,7 @@
       <c r="E167" s="42"/>
       <c r="F167" s="56"/>
       <c r="G167" s="56" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>Bérköltség</v>
       </c>
       <c r="H167" s="25"/>
@@ -15126,7 +15129,7 @@
       <c r="M167" s="58"/>
       <c r="N167" s="59"/>
       <c r="O167" s="88">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="P167" s="60"/>
@@ -15147,7 +15150,7 @@
       <c r="E168" s="42"/>
       <c r="F168" s="56"/>
       <c r="G168" s="56" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>Bérköltség</v>
       </c>
       <c r="H168" s="25"/>
@@ -15158,7 +15161,7 @@
       <c r="M168" s="58"/>
       <c r="N168" s="59"/>
       <c r="O168" s="88">
-        <f t="shared" ref="O168:O169" si="172">ROUND(N168*0.9*Q168,0)</f>
+        <f t="shared" ref="O168:O169" si="173">ROUND(N168*0.9*Q168,0)</f>
         <v>0</v>
       </c>
       <c r="P168" s="60"/>
@@ -15179,7 +15182,7 @@
       <c r="E169" s="42"/>
       <c r="F169" s="56"/>
       <c r="G169" s="56" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>Bérköltség</v>
       </c>
       <c r="H169" s="25"/>
@@ -15190,7 +15193,7 @@
       <c r="M169" s="58"/>
       <c r="N169" s="59"/>
       <c r="O169" s="88">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0</v>
       </c>
       <c r="P169" s="60"/>
@@ -15211,7 +15214,7 @@
       <c r="E170" s="42"/>
       <c r="F170" s="56"/>
       <c r="G170" s="56" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>Bérköltség</v>
       </c>
       <c r="H170" s="25"/>
@@ -15222,7 +15225,7 @@
       <c r="M170" s="58"/>
       <c r="N170" s="59"/>
       <c r="O170" s="88">
-        <f t="shared" ref="O170" si="173">ROUND(N170*0.9*Q170,0)</f>
+        <f t="shared" ref="O170" si="174">ROUND(N170*0.9*Q170,0)</f>
         <v>0</v>
       </c>
       <c r="P170" s="100"/>
@@ -15243,7 +15246,7 @@
       <c r="E171" s="42"/>
       <c r="F171" s="56"/>
       <c r="G171" s="56" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>Bérköltség</v>
       </c>
       <c r="H171" s="25"/>
@@ -15269,7 +15272,7 @@
       <c r="E172" s="42"/>
       <c r="F172" s="56"/>
       <c r="G172" s="56" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>Bérköltség</v>
       </c>
       <c r="H172" s="25"/>
@@ -15295,7 +15298,7 @@
       <c r="E173" s="42"/>
       <c r="F173" s="56"/>
       <c r="G173" s="56" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>Bérköltség</v>
       </c>
       <c r="H173" s="25"/>
@@ -15321,7 +15324,7 @@
       <c r="E174" s="42"/>
       <c r="F174" s="56"/>
       <c r="G174" s="56" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>Bérköltség</v>
       </c>
       <c r="H174" s="25"/>
@@ -15381,11 +15384,11 @@
       <c r="M176" s="124"/>
       <c r="N176" s="125">
         <f>SUBTOTAL(109,N6:N175)</f>
-        <v>49508606</v>
+        <v>49748606</v>
       </c>
       <c r="O176" s="125">
         <f>SUBTOTAL(109,O6:O175)</f>
-        <v>6436120</v>
+        <v>6437160</v>
       </c>
       <c r="P176" s="126"/>
       <c r="Q176" s="126"/>
@@ -15422,7 +15425,7 @@
       <selection pane="bottomLeft" activeCell="H77" sqref="H77"/>
       <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.35433070866141736" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A4:AV400" xr:uid="{C7B7D1BE-2837-4CC3-ACE5-C1DF1CA711C7}">
+      <autoFilter ref="A4:AV400" xr:uid="{706D3BA2-9EC5-4B16-A5BC-213D8F29067F}">
         <filterColumn colId="6">
           <filters>
             <filter val="2019.06"/>
@@ -15452,11 +15455,26 @@
     <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="40" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S175:T175" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A65373:D65380 A65364:D65371 A65382:D65382 H6:H175 F6:F175 B6:C175 E8:E13 E119:E125 E91:E117 E62:E89 E6 E15:E60 E127:E175" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A65373:D65380 A65364:D65371 A65382:D65382" xr:uid="{00000000-0002-0000-0100-000002000000}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E13 E119:E125 E91:E117 E62:E89 E6 E15:E60 E127:E175" xr:uid="{F458E2C3-C099-4675-9CFA-C9EF8340904C}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C175" xr:uid="{00000000-0002-0000-0100-000004000000}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F175" xr:uid="{00000000-0002-0000-0100-000008000000}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H175" xr:uid="{601FE2FC-E7B6-46F4-A2C2-7BA2523D25AF}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B175" xr:uid="{B2C5F4E1-BBBB-4552-82F9-0BF8C4E15A96}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -15914,13 +15932,13 @@
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F28" s="10">
         <f>Bérköltség!N176+Bérköltség!O176</f>
-        <v>55944726</v>
+        <v>56185766</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10">
         <f>Bérköltség!N176+Bérköltség!O176+Dologi_felhalm.!I25</f>
-        <v>55944726</v>
+        <v>56185766</v>
       </c>
     </row>
   </sheetData>
@@ -15930,7 +15948,7 @@
       <selection activeCell="L44" sqref="L44"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A41:N455" xr:uid="{E38958B4-9035-45E2-AD3A-E11130F5B8AC}"/>
+      <autoFilter ref="A41:N455" xr:uid="{7161583E-82E0-45CF-9BFB-97EC4439477E}"/>
     </customSheetView>
   </customSheetViews>
   <dataValidations count="4">
